--- a/data/trans_orig/IP08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EECC43E-E4F7-4CA9-94BC-09FC839C04BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFF1CBC-809F-4C0D-9D58-F971C0820AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{525F7FE9-4AD6-4401-B7E6-3E74C078B94F}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0319A72C-695D-4603-AC80-220217D1C284}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -68,12 +68,132 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>76,96%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>89,2%</t>
+  </si>
+  <si>
+    <t>70,57%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>80,75%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>23,04%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>29,43%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>19,25%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>83,08%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>89,52%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
     <t>86,63%</t>
   </si>
   <si>
@@ -101,9 +221,6 @@
     <t>91,55%</t>
   </si>
   <si>
-    <t>Sí</t>
-  </si>
-  <si>
     <t>13,37%</t>
   </si>
   <si>
@@ -131,64 +248,61 @@
     <t>13,25%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -248,120 +362,6 @@
     <t>13,61%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>76,96%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
     <t>88,44%</t>
   </si>
   <si>
@@ -419,6 +419,114 @@
     <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>93,19%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>69,32%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>72,95%</t>
+  </si>
+  <si>
+    <t>92,81%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>6,81%</t>
+  </si>
+  <si>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>30,68%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>27,05%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>84,35%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>94,24%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,42%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>15,65%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,76%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>13,58%</t>
+  </si>
+  <si>
     <t>85,96%</t>
   </si>
   <si>
@@ -473,58 +581,58 @@
     <t>16,68%</t>
   </si>
   <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
   </si>
   <si>
     <t>86,72%</t>
@@ -575,114 +683,6 @@
     <t>14,52%</t>
   </si>
   <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
     <t>86,41%</t>
   </si>
   <si>
@@ -728,6 +728,96 @@
     <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
   </si>
   <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>86,34%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>67,29%</t>
+  </si>
+  <si>
+    <t>83,01%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>13,66%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>32,71%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>16,99%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>97,42%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,71%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>9,29%</t>
+  </si>
+  <si>
     <t>91,07%</t>
   </si>
   <si>
@@ -782,52 +872,52 @@
     <t>11,82%</t>
   </si>
   <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>90,63%</t>
@@ -878,96 +968,6 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
     <t>93,06%</t>
   </si>
   <si>
@@ -1013,6 +1013,108 @@
     <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
   </si>
   <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>70,02%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,66%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>77,88%</t>
+  </si>
+  <si>
+    <t>91,87%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>29,98%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,09%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,13%</t>
+  </si>
+  <si>
+    <t>22,12%</t>
+  </si>
+  <si>
     <t>89,79%</t>
   </si>
   <si>
@@ -1067,58 +1169,52 @@
     <t>12,92%</t>
   </si>
   <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,28%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>87,04%</t>
+  </si>
+  <si>
+    <t>92,78%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>12,72%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>12,96%</t>
   </si>
   <si>
     <t>84,95%</t>
@@ -1167,102 +1263,6 @@
   </si>
   <si>
     <t>15,47%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
   </si>
   <si>
     <t>87,62%</t>
@@ -1702,7 +1702,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{877646D6-8890-4567-9A6C-EA6E7AF9BB33}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D32FBE9-775D-484C-A6EA-E6C38333ED48}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1820,10 +1820,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="D4" s="7">
-        <v>183783</v>
+        <v>23186</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1835,10 +1835,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>179467</v>
+        <v>20270</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1850,10 +1850,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>566</v>
+        <v>56</v>
       </c>
       <c r="N4" s="7">
-        <v>363250</v>
+        <v>43456</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1871,10 +1871,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>28359</v>
+        <v>2258</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1886,10 +1886,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>15696</v>
+        <v>2454</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1901,10 +1901,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="N5" s="7">
-        <v>44055</v>
+        <v>4712</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1922,10 +1922,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>322</v>
+        <v>33</v>
       </c>
       <c r="D6" s="7">
-        <v>212142</v>
+        <v>25444</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1937,10 +1937,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>312</v>
+        <v>29</v>
       </c>
       <c r="I6" s="7">
-        <v>195163</v>
+        <v>22724</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1952,10 +1952,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>634</v>
+        <v>62</v>
       </c>
       <c r="N6" s="7">
-        <v>407305</v>
+        <v>48168</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -2130,10 +2130,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="D10" s="7">
-        <v>184914</v>
+        <v>183783</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2145,10 +2145,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>244</v>
+        <v>286</v>
       </c>
       <c r="I10" s="7">
-        <v>186402</v>
+        <v>179467</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2160,10 +2160,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>516</v>
+        <v>566</v>
       </c>
       <c r="N10" s="7">
-        <v>371317</v>
+        <v>363250</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2181,10 +2181,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>33</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7">
-        <v>22215</v>
+        <v>28359</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2196,10 +2196,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>22913</v>
+        <v>15696</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2211,10 +2211,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="N11" s="7">
-        <v>45127</v>
+        <v>44055</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2232,10 +2232,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>305</v>
+        <v>322</v>
       </c>
       <c r="D12" s="7">
-        <v>207129</v>
+        <v>212142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2247,10 +2247,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>312</v>
       </c>
       <c r="I12" s="7">
-        <v>209315</v>
+        <v>195163</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2262,10 +2262,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>579</v>
+        <v>634</v>
       </c>
       <c r="N12" s="7">
-        <v>416444</v>
+        <v>407305</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2285,10 +2285,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>30</v>
+        <v>209</v>
       </c>
       <c r="D13" s="7">
-        <v>23186</v>
+        <v>134291</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2300,10 +2300,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>26</v>
+        <v>216</v>
       </c>
       <c r="I13" s="7">
-        <v>20270</v>
+        <v>129948</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2315,10 +2315,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>56</v>
+        <v>425</v>
       </c>
       <c r="N13" s="7">
-        <v>43456</v>
+        <v>264238</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2336,10 +2336,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="D14" s="7">
-        <v>2258</v>
+        <v>15366</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2351,10 +2351,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="I14" s="7">
-        <v>2454</v>
+        <v>7869</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2366,10 +2366,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="N14" s="7">
-        <v>4712</v>
+        <v>23236</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2387,10 +2387,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>33</v>
+        <v>232</v>
       </c>
       <c r="D15" s="7">
-        <v>25444</v>
+        <v>149657</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2402,10 +2402,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="I15" s="7">
-        <v>22724</v>
+        <v>137817</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2417,10 +2417,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>62</v>
+        <v>461</v>
       </c>
       <c r="N15" s="7">
-        <v>48168</v>
+        <v>287474</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2440,10 +2440,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>209</v>
+        <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>134291</v>
+        <v>184914</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2455,10 +2455,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>216</v>
+        <v>244</v>
       </c>
       <c r="I16" s="7">
-        <v>129948</v>
+        <v>186402</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2470,10 +2470,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="N16" s="7">
-        <v>264238</v>
+        <v>371317</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2491,10 +2491,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>23</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7">
-        <v>15366</v>
+        <v>22215</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2506,10 +2506,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="I17" s="7">
-        <v>7869</v>
+        <v>22913</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2521,10 +2521,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N17" s="7">
-        <v>23236</v>
+        <v>45127</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2542,10 +2542,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>232</v>
+        <v>305</v>
       </c>
       <c r="D18" s="7">
-        <v>149657</v>
+        <v>207129</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2557,10 +2557,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>229</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>137817</v>
+        <v>209315</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2572,10 +2572,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="N18" s="7">
-        <v>287474</v>
+        <v>416444</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2760,7 +2760,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D44ED093-D653-4B24-954D-B74C31987570}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D196BBF-22A0-4335-A1E8-ED196E7CD938}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2878,10 +2878,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>279</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7">
-        <v>192413</v>
+        <v>20772</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>126</v>
@@ -2893,10 +2893,10 @@
         <v>128</v>
       </c>
       <c r="H4" s="7">
-        <v>275</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>178552</v>
+        <v>19628</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>129</v>
@@ -2908,10 +2908,10 @@
         <v>131</v>
       </c>
       <c r="M4" s="7">
-        <v>554</v>
+        <v>46</v>
       </c>
       <c r="N4" s="7">
-        <v>370965</v>
+        <v>40400</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>132</v>
@@ -2929,10 +2929,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>45</v>
+        <v>5</v>
       </c>
       <c r="D5" s="7">
-        <v>31422</v>
+        <v>4683</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>135</v>
@@ -2944,10 +2944,10 @@
         <v>137</v>
       </c>
       <c r="H5" s="7">
-        <v>44</v>
+        <v>3</v>
       </c>
       <c r="I5" s="7">
-        <v>27806</v>
+        <v>2745</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>138</v>
@@ -2959,10 +2959,10 @@
         <v>140</v>
       </c>
       <c r="M5" s="7">
-        <v>89</v>
+        <v>8</v>
       </c>
       <c r="N5" s="7">
-        <v>59228</v>
+        <v>7428</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>141</v>
@@ -2980,10 +2980,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>324</v>
+        <v>28</v>
       </c>
       <c r="D6" s="7">
-        <v>223835</v>
+        <v>25455</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2995,10 +2995,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>319</v>
+        <v>26</v>
       </c>
       <c r="I6" s="7">
-        <v>206358</v>
+        <v>22373</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3010,10 +3010,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>643</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>430193</v>
+        <v>47828</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3188,49 +3188,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="D10" s="7">
-        <v>180719</v>
+        <v>192413</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>162</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>130</v>
+        <v>163</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="H10" s="7">
-        <v>245</v>
+        <v>275</v>
       </c>
       <c r="I10" s="7">
-        <v>188438</v>
+        <v>178552</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M10" s="7">
-        <v>491</v>
+        <v>554</v>
       </c>
       <c r="N10" s="7">
-        <v>369157</v>
+        <v>370965</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,49 +3239,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="D11" s="7">
-        <v>27677</v>
+        <v>31422</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>140</v>
+        <v>173</v>
       </c>
       <c r="H11" s="7">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="I11" s="7">
-        <v>21128</v>
+        <v>27806</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="M11" s="7">
-        <v>66</v>
+        <v>89</v>
       </c>
       <c r="N11" s="7">
-        <v>48805</v>
+        <v>59228</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3290,10 +3290,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>283</v>
+        <v>324</v>
       </c>
       <c r="D12" s="7">
-        <v>208396</v>
+        <v>223835</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3305,10 +3305,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>274</v>
+        <v>319</v>
       </c>
       <c r="I12" s="7">
-        <v>209566</v>
+        <v>206358</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3320,10 +3320,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>557</v>
+        <v>643</v>
       </c>
       <c r="N12" s="7">
-        <v>417962</v>
+        <v>430193</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3343,49 +3343,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="D13" s="7">
-        <v>20772</v>
+        <v>141299</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="H13" s="7">
-        <v>23</v>
+        <v>211</v>
       </c>
       <c r="I13" s="7">
-        <v>19628</v>
+        <v>135506</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="M13" s="7">
-        <v>46</v>
+        <v>428</v>
       </c>
       <c r="N13" s="7">
-        <v>40400</v>
+        <v>276804</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3394,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D14" s="7">
-        <v>4683</v>
+        <v>25293</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="I14" s="7">
-        <v>2745</v>
+        <v>19870</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="M14" s="7">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="N14" s="7">
-        <v>7428</v>
+        <v>45164</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3445,10 +3445,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>28</v>
+        <v>256</v>
       </c>
       <c r="D15" s="7">
-        <v>25455</v>
+        <v>166592</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3460,10 +3460,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>26</v>
+        <v>242</v>
       </c>
       <c r="I15" s="7">
-        <v>22373</v>
+        <v>155376</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3475,10 +3475,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>498</v>
       </c>
       <c r="N15" s="7">
-        <v>47828</v>
+        <v>321968</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3498,49 +3498,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="D16" s="7">
-        <v>141299</v>
+        <v>180719</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>197</v>
+        <v>166</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="H16" s="7">
-        <v>211</v>
+        <v>245</v>
       </c>
       <c r="I16" s="7">
-        <v>135506</v>
+        <v>188438</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="M16" s="7">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="N16" s="7">
-        <v>276804</v>
+        <v>369157</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,25 +3549,25 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D17" s="7">
-        <v>25293</v>
+        <v>27677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>207</v>
+        <v>176</v>
       </c>
       <c r="H17" s="7">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I17" s="7">
-        <v>19870</v>
+        <v>21128</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>208</v>
@@ -3579,10 +3579,10 @@
         <v>210</v>
       </c>
       <c r="M17" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N17" s="7">
-        <v>45164</v>
+        <v>48805</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>211</v>
@@ -3600,10 +3600,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="D18" s="7">
-        <v>166592</v>
+        <v>208396</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3615,10 +3615,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>242</v>
+        <v>274</v>
       </c>
       <c r="I18" s="7">
-        <v>155376</v>
+        <v>209566</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3630,10 +3630,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="N18" s="7">
-        <v>321968</v>
+        <v>417962</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3818,7 +3818,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4325C234-55A5-43B6-A423-7109E97FB372}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF2D88F-4736-49F4-9E47-C495658E207D}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3936,10 +3936,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>204318</v>
+        <v>24540</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>229</v>
@@ -3951,10 +3951,10 @@
         <v>231</v>
       </c>
       <c r="H4" s="7">
-        <v>302</v>
+        <v>22</v>
       </c>
       <c r="I4" s="7">
-        <v>187174</v>
+        <v>20295</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>232</v>
@@ -3963,22 +3963,22 @@
         <v>233</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="M4" s="7">
+        <v>50</v>
+      </c>
+      <c r="N4" s="7">
+        <v>44834</v>
+      </c>
+      <c r="O4" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="M4" s="7">
-        <v>606</v>
-      </c>
-      <c r="N4" s="7">
-        <v>391493</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +3987,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>20041</v>
+        <v>1034</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>2</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2232</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>237</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="H5" s="7">
-        <v>31</v>
-      </c>
-      <c r="I5" s="7">
-        <v>19596</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>4</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3267</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>241</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>242</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="M5" s="7">
-        <v>59</v>
-      </c>
-      <c r="N5" s="7">
-        <v>39636</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>245</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4038,10 +4038,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>332</v>
+        <v>30</v>
       </c>
       <c r="D6" s="7">
-        <v>224359</v>
+        <v>25574</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4053,10 +4053,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>333</v>
+        <v>24</v>
       </c>
       <c r="I6" s="7">
-        <v>206770</v>
+        <v>22527</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4068,10 +4068,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>665</v>
+        <v>54</v>
       </c>
       <c r="N6" s="7">
-        <v>431129</v>
+        <v>48101</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4097,13 +4097,13 @@
         <v>111685</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="H7" s="7">
         <v>154</v>
@@ -4112,13 +4112,13 @@
         <v>105244</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K7" s="7" t="s">
         <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="M7" s="7">
         <v>304</v>
@@ -4127,13 +4127,13 @@
         <v>216928</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4148,13 +4148,13 @@
         <v>8675</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>9</v>
@@ -4163,10 +4163,10 @@
         <v>5936</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>225</v>
@@ -4178,13 +4178,13 @@
         <v>14612</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4246,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>272</v>
+        <v>304</v>
       </c>
       <c r="D10" s="7">
-        <v>193107</v>
+        <v>204318</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>231</v>
+        <v>259</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H10" s="7">
+        <v>302</v>
+      </c>
+      <c r="I10" s="7">
+        <v>187174</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="H10" s="7">
+      <c r="M10" s="7">
+        <v>606</v>
+      </c>
+      <c r="N10" s="7">
+        <v>391493</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="I10" s="7">
-        <v>196169</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="M10" s="7">
-        <v>537</v>
-      </c>
-      <c r="N10" s="7">
-        <v>389277</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,49 +4297,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="D11" s="7">
-        <v>12629</v>
+        <v>20041</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="H11" s="7">
+        <v>31</v>
+      </c>
+      <c r="I11" s="7">
+        <v>19596</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="H11" s="7">
-        <v>15</v>
-      </c>
-      <c r="I11" s="7">
-        <v>10350</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>59</v>
+      </c>
+      <c r="N11" s="7">
+        <v>39636</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>275</v>
       </c>
-      <c r="M11" s="7">
-        <v>33</v>
-      </c>
-      <c r="N11" s="7">
-        <v>22978</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4348,10 +4348,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>290</v>
+        <v>332</v>
       </c>
       <c r="D12" s="7">
-        <v>205736</v>
+        <v>224359</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4363,10 +4363,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>333</v>
       </c>
       <c r="I12" s="7">
-        <v>206519</v>
+        <v>206770</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4378,10 +4378,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>570</v>
+        <v>665</v>
       </c>
       <c r="N12" s="7">
-        <v>412255</v>
+        <v>431129</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4401,49 +4401,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="D13" s="7">
-        <v>24540</v>
+        <v>156675</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>242</v>
+      </c>
+      <c r="I13" s="7">
+        <v>145700</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="H13" s="7">
-        <v>22</v>
-      </c>
-      <c r="I13" s="7">
-        <v>20295</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>283</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>50</v>
+        <v>475</v>
       </c>
       <c r="N13" s="7">
-        <v>44834</v>
+        <v>302374</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>166</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>284</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4452,43 +4452,43 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="D14" s="7">
-        <v>1034</v>
+        <v>9068</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>286</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>287</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>16</v>
+      </c>
+      <c r="I14" s="7">
+        <v>9532</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>2232</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>289</v>
       </c>
-      <c r="K14" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>30</v>
+      </c>
+      <c r="N14" s="7">
+        <v>18601</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="M14" s="7">
-        <v>4</v>
-      </c>
-      <c r="N14" s="7">
-        <v>3267</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>291</v>
@@ -4503,10 +4503,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>30</v>
+        <v>247</v>
       </c>
       <c r="D15" s="7">
-        <v>25574</v>
+        <v>165743</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4518,10 +4518,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>24</v>
+        <v>258</v>
       </c>
       <c r="I15" s="7">
-        <v>22527</v>
+        <v>155232</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4533,10 +4533,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>54</v>
+        <v>505</v>
       </c>
       <c r="N15" s="7">
-        <v>48101</v>
+        <v>320975</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4556,28 +4556,28 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>233</v>
+        <v>272</v>
       </c>
       <c r="D16" s="7">
-        <v>156675</v>
+        <v>193107</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>293</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>265</v>
+      </c>
+      <c r="I16" s="7">
+        <v>196169</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="H16" s="7">
-        <v>242</v>
-      </c>
-      <c r="I16" s="7">
-        <v>145700</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>231</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>296</v>
@@ -4586,10 +4586,10 @@
         <v>297</v>
       </c>
       <c r="M16" s="7">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="N16" s="7">
-        <v>302374</v>
+        <v>389277</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>298</v>
@@ -4607,28 +4607,28 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>9068</v>
+        <v>12629</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>302</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>15</v>
+      </c>
+      <c r="I17" s="7">
+        <v>10350</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="H17" s="7">
-        <v>16</v>
-      </c>
-      <c r="I17" s="7">
-        <v>9532</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>304</v>
@@ -4637,10 +4637,10 @@
         <v>305</v>
       </c>
       <c r="M17" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N17" s="7">
-        <v>18601</v>
+        <v>22978</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>306</v>
@@ -4658,10 +4658,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>247</v>
+        <v>290</v>
       </c>
       <c r="D18" s="7">
-        <v>165743</v>
+        <v>205736</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4673,10 +4673,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>258</v>
+        <v>280</v>
       </c>
       <c r="I18" s="7">
-        <v>155232</v>
+        <v>206519</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4688,10 +4688,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="N18" s="7">
-        <v>320975</v>
+        <v>412255</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4723,7 +4723,7 @@
         <v>310</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>268</v>
+        <v>298</v>
       </c>
       <c r="H19" s="7">
         <v>985</v>
@@ -4732,7 +4732,7 @@
         <v>654581</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="K19" s="7" t="s">
         <v>311</v>
@@ -4771,7 +4771,7 @@
         <v>316</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>276</v>
+        <v>306</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>317</v>
@@ -4783,7 +4783,7 @@
         <v>47647</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>318</v>
@@ -4876,7 +4876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01C69493-0044-4E43-853B-EDFC2B8AE404}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06FC866-D916-4D76-A16D-E9B54643962F}">
   <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4994,10 +4994,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>303</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>222645</v>
+        <v>10195</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>324</v>
@@ -5009,10 +5009,10 @@
         <v>326</v>
       </c>
       <c r="H4" s="7">
-        <v>254</v>
+        <v>25</v>
       </c>
       <c r="I4" s="7">
-        <v>173896</v>
+        <v>15319</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>327</v>
@@ -5024,19 +5024,19 @@
         <v>329</v>
       </c>
       <c r="M4" s="7">
-        <v>557</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>396541</v>
+        <v>25514</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>330</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,49 +5045,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="D5" s="7">
-        <v>25328</v>
+        <v>2503</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>333</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>334</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>3</v>
+      </c>
+      <c r="I5" s="7">
+        <v>1468</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>335</v>
       </c>
-      <c r="H5" s="7">
-        <v>26</v>
-      </c>
-      <c r="I5" s="7">
-        <v>18456</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>337</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>7</v>
+      </c>
+      <c r="N5" s="7">
+        <v>3971</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>338</v>
       </c>
-      <c r="M5" s="7">
-        <v>64</v>
-      </c>
-      <c r="N5" s="7">
-        <v>43784</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5096,10 +5096,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>341</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7">
-        <v>247973</v>
+        <v>12698</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5111,10 +5111,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>280</v>
+        <v>28</v>
       </c>
       <c r="I6" s="7">
-        <v>192352</v>
+        <v>16787</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5126,10 +5126,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>621</v>
+        <v>47</v>
       </c>
       <c r="N6" s="7">
-        <v>440325</v>
+        <v>29485</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5155,13 +5155,13 @@
         <v>98341</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>152</v>
@@ -5170,13 +5170,13 @@
         <v>93386</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>288</v>
@@ -5185,13 +5185,13 @@
         <v>191726</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5206,13 @@
         <v>16255</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>352</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>16</v>
@@ -5221,13 +5221,13 @@
         <v>10509</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>353</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>355</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>32</v>
@@ -5236,13 +5236,13 @@
         <v>26764</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>356</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,49 +5304,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>202</v>
+        <v>303</v>
       </c>
       <c r="D10" s="7">
-        <v>148677</v>
+        <v>222645</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>359</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>360</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>254</v>
+      </c>
+      <c r="I10" s="7">
+        <v>173896</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="H10" s="7">
-        <v>217</v>
-      </c>
-      <c r="I10" s="7">
-        <v>155930</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>363</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>557</v>
+      </c>
+      <c r="N10" s="7">
+        <v>396541</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>364</v>
       </c>
-      <c r="M10" s="7">
-        <v>419</v>
-      </c>
-      <c r="N10" s="7">
-        <v>304606</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>365</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>366</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>367</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5355,28 +5355,28 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="D11" s="7">
-        <v>26339</v>
+        <v>25328</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>368</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>369</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>26</v>
+      </c>
+      <c r="I11" s="7">
+        <v>18456</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="H11" s="7">
-        <v>23</v>
-      </c>
-      <c r="I11" s="7">
-        <v>16013</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>303</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>371</v>
@@ -5385,10 +5385,10 @@
         <v>372</v>
       </c>
       <c r="M11" s="7">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="N11" s="7">
-        <v>42352</v>
+        <v>43784</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>373</v>
@@ -5406,10 +5406,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>238</v>
+        <v>341</v>
       </c>
       <c r="D12" s="7">
-        <v>175016</v>
+        <v>247973</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5421,10 +5421,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>240</v>
+        <v>280</v>
       </c>
       <c r="I12" s="7">
-        <v>171943</v>
+        <v>192352</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5436,10 +5436,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>478</v>
+        <v>621</v>
       </c>
       <c r="N12" s="7">
-        <v>346958</v>
+        <v>440325</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5459,10 +5459,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>199</v>
       </c>
       <c r="D13" s="7">
-        <v>10195</v>
+        <v>154082</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>376</v>
@@ -5474,10 +5474,10 @@
         <v>378</v>
       </c>
       <c r="H13" s="7">
-        <v>25</v>
+        <v>204</v>
       </c>
       <c r="I13" s="7">
-        <v>15319</v>
+        <v>152996</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>379</v>
@@ -5489,13 +5489,13 @@
         <v>381</v>
       </c>
       <c r="M13" s="7">
-        <v>40</v>
+        <v>403</v>
       </c>
       <c r="N13" s="7">
-        <v>25514</v>
+        <v>307078</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>382</v>
@@ -5510,10 +5510,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="D14" s="7">
-        <v>2503</v>
+        <v>19126</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>384</v>
@@ -5525,10 +5525,10 @@
         <v>386</v>
       </c>
       <c r="H14" s="7">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="I14" s="7">
-        <v>1468</v>
+        <v>14430</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>387</v>
@@ -5540,13 +5540,13 @@
         <v>389</v>
       </c>
       <c r="M14" s="7">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="N14" s="7">
-        <v>3971</v>
+        <v>33556</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>138</v>
+        <v>61</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>390</v>
@@ -5561,10 +5561,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>19</v>
+        <v>225</v>
       </c>
       <c r="D15" s="7">
-        <v>12698</v>
+        <v>173208</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5576,10 +5576,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>28</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>16787</v>
+        <v>167426</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5591,10 +5591,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>47</v>
+        <v>450</v>
       </c>
       <c r="N15" s="7">
-        <v>29485</v>
+        <v>340634</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5614,10 +5614,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D16" s="7">
-        <v>154082</v>
+        <v>148677</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>392</v>
@@ -5629,28 +5629,28 @@
         <v>394</v>
       </c>
       <c r="H16" s="7">
-        <v>204</v>
+        <v>217</v>
       </c>
       <c r="I16" s="7">
-        <v>152996</v>
+        <v>155930</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>395</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>419</v>
+      </c>
+      <c r="N16" s="7">
+        <v>304606</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>397</v>
-      </c>
-      <c r="M16" s="7">
-        <v>403</v>
-      </c>
-      <c r="N16" s="7">
-        <v>307078</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>13</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>398</v>
@@ -5665,10 +5665,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="D17" s="7">
-        <v>19126</v>
+        <v>26339</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>400</v>
@@ -5680,28 +5680,28 @@
         <v>402</v>
       </c>
       <c r="H17" s="7">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="I17" s="7">
-        <v>14430</v>
+        <v>16013</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>59</v>
+      </c>
+      <c r="N17" s="7">
+        <v>42352</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="M17" s="7">
-        <v>47</v>
-      </c>
-      <c r="N17" s="7">
-        <v>33556</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>22</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>406</v>
@@ -5716,10 +5716,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>175016</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5731,10 +5731,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="I18" s="7">
-        <v>167426</v>
+        <v>171943</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5746,10 +5746,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="N18" s="7">
-        <v>340634</v>
+        <v>346958</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5EFF1CBC-809F-4C0D-9D58-F971C0820AE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{14781DCD-FC65-4C8B-A3D8-D9A69F59AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{0319A72C-695D-4603-AC80-220217D1C284}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0481F47-0D76-4EC2-BD86-603BA20F54E8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,9 +39,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="820" uniqueCount="424">
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -71,13 +71,43 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>21,21%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>3,73%</t>
+  </si>
+  <si>
+    <t>20,27%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
     <t>91,13%</t>
   </si>
   <si>
-    <t>76,96%</t>
+    <t>78,79%</t>
   </si>
   <si>
     <t>97,65%</t>
@@ -86,49 +116,19 @@
     <t>89,2%</t>
   </si>
   <si>
-    <t>70,57%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
   </si>
   <si>
     <t>90,22%</t>
   </si>
   <si>
-    <t>80,75%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>23,04%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>19,25%</t>
+    <t>79,73%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,1180 +137,1189 @@
     <t>2/10</t>
   </si>
   <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>11,03%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
     <t>88,03%</t>
   </si>
   <si>
-    <t>83,08%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
   <si>
     <t>93,7%</t>
   </si>
   <si>
-    <t>89,52%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
+    <t>88,97%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
   </si>
   <si>
     <t>90,73%</t>
   </si>
   <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>16,92%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>10,48%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
   </si>
   <si>
     <t>10/50</t>
   </si>
   <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>17,56%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,24%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>13,45%</t>
+  </si>
+  <si>
     <t>86,63%</t>
   </si>
   <si>
-    <t>82,42%</t>
+    <t>82,44%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,76%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,55%</t>
+  </si>
+  <si>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>15,36%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>11,07%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>84,64%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,93%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,76%</t>
+  </si>
+  <si>
+    <t>14,74%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>85,26%</t>
+  </si>
+  <si>
+    <t>92,24%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,32%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>93,46%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>7,15%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>30,71%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>27,28%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>92,85%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>69,29%</t>
+  </si>
+  <si>
+    <t>96,1%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>72,72%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>16,74%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>15,22%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,14%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>83,26%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>84,78%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,48%</t>
+  </si>
+  <si>
+    <t>92,86%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>17,99%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,36%</t>
+  </si>
+  <si>
+    <t>17,32%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,19%</t>
+  </si>
+  <si>
+    <t>16,56%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,68%</t>
+  </si>
+  <si>
+    <t>89,64%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,44%</t>
+  </si>
+  <si>
+    <t>88,81%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>17,37%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>17,28%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,63%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>14,3%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,7%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,44%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,26%</t>
+  </si>
+  <si>
+    <t>14,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>86,31%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,9%</t>
+  </si>
+  <si>
+    <t>88,74%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,16%</t>
+  </si>
+  <si>
+    <t>16,66%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>85,91%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>70,48%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>83,34%</t>
+  </si>
+  <si>
+    <t>97,84%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>3,63%</t>
+  </si>
+  <si>
+    <t>12,28%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>87,72%</t>
+  </si>
+  <si>
+    <t>96,37%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>13,15%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>86,85%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>9,81%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>96,81%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,19%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>8,28%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>96,31%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,72%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>43,81%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,39%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>56,19%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>97,61%</t>
+  </si>
+  <si>
+    <t>72,84%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>31,34%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>6,43%</t>
+  </si>
+  <si>
+    <t>15,54%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,1%</t>
+  </si>
+  <si>
+    <t>22,5%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>68,66%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,46%</t>
+  </si>
+  <si>
+    <t>93,57%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>77,5%</t>
+  </si>
+  <si>
+    <t>91,9%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>7,1%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,35%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>92,9%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>94,65%</t>
   </si>
   <si>
     <t>90,15%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,75%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>17,58%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>13,25%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>84,94%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,39%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>14,64%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>15,06%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,61%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>86,46%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
+    <t>86,67%</t>
+  </si>
+  <si>
+    <t>92,68%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>20,05%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>13,34%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>15,46%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>79,95%</t>
+  </si>
+  <si>
+    <t>89,24%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,66%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,54%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>15,38%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
+  </si>
+  <si>
+    <t>9,4%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
   </si>
   <si>
     <t>89,83%</t>
   </si>
   <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>91,23%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,77%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>63,93%</t>
-  </si>
-  <si>
-    <t>93,19%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>69,32%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>72,95%</t>
-  </si>
-  <si>
-    <t>92,81%</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>6,81%</t>
-  </si>
-  <si>
-    <t>36,07%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>30,68%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,19%</t>
-  </si>
-  <si>
-    <t>27,05%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>84,35%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,88%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,42%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>15,65%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>13,58%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,81%</t>
-  </si>
-  <si>
-    <t>89,87%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,53%</t>
-  </si>
-  <si>
-    <t>89,84%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,32%</t>
-  </si>
-  <si>
-    <t>88,84%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>18,19%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,16%</t>
-  </si>
-  <si>
-    <t>17,47%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,16%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,98%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>82,29%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,91%</t>
-  </si>
-  <si>
-    <t>88,91%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>20,02%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>17,71%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,09%</t>
-  </si>
-  <si>
-    <t>17,09%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>86,38%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>13,62%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>88,64%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,81%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,36%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>14,19%</t>
-  </si>
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>86,34%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>67,29%</t>
-  </si>
-  <si>
-    <t>83,01%</t>
-  </si>
-  <si>
-    <t>97,87%</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>13,66%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>32,71%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>16,99%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>95,83%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>97,42%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,71%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>9,29%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>87,55%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>12,45%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>11,82%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>96,82%</t>
-  </si>
-  <si>
-    <t>90,08%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,16%</t>
-  </si>
-  <si>
-    <t>96,13%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>9,92%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,87%</t>
-  </si>
-  <si>
-    <t>7,84%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,6%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,37%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,93%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>8,07%</t>
-  </si>
-  <si>
-    <t>Menores según sufrir alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>70,02%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,66%</t>
-  </si>
-  <si>
-    <t>93,91%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>77,88%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>29,98%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,09%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>22,12%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>85,69%</t>
-  </si>
-  <si>
-    <t>92,53%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,17%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,08%</t>
-  </si>
-  <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,47%</t>
-  </si>
-  <si>
-    <t>14,31%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>14,83%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
-  </si>
-  <si>
-    <t>12,92%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,28%</t>
-  </si>
-  <si>
-    <t>94,38%</t>
-  </si>
-  <si>
-    <t>87,04%</t>
-  </si>
-  <si>
-    <t>92,78%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>12,96%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>79,83%</t>
-  </si>
-  <si>
-    <t>89,27%</t>
-  </si>
-  <si>
-    <t>85,95%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,53%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,73%</t>
-  </si>
-  <si>
-    <t>20,17%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>14,05%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>15,47%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,67%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
   </si>
   <si>
     <t>89,07%</t>
   </si>
   <si>
-    <t>87,18%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>11,33%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>12,82%</t>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>90,6%</t>
   </si>
 </sst>
 </file>
@@ -1321,7 +1330,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1417,39 +1426,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1501,7 +1510,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1612,13 +1621,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1627,6 +1629,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1691,19 +1700,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7D32FBE9-775D-484C-A6EA-E6C38333ED48}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C61FC4-FCBC-4C4B-90F9-048D0AA9B23F}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1820,10 +1849,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="D4" s="7">
-        <v>23186</v>
+        <v>2258</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1835,10 +1864,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>20270</v>
+        <v>2454</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1850,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="N4" s="7">
-        <v>43456</v>
+        <v>4712</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1871,10 +1900,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="D5" s="7">
-        <v>2258</v>
+        <v>23186</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1886,10 +1915,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I5" s="7">
-        <v>2454</v>
+        <v>20270</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1901,10 +1930,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="N5" s="7">
-        <v>4712</v>
+        <v>43456</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1975,10 +2004,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>170</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7">
-        <v>112354</v>
+        <v>15279</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1990,10 +2019,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>163</v>
+        <v>11</v>
       </c>
       <c r="I7" s="7">
-        <v>108690</v>
+        <v>7312</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2005,10 +2034,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>333</v>
+        <v>34</v>
       </c>
       <c r="N7" s="7">
-        <v>221044</v>
+        <v>22591</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2026,10 +2055,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>170</v>
       </c>
       <c r="D8" s="7">
-        <v>15279</v>
+        <v>112354</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2041,10 +2070,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>11</v>
+        <v>163</v>
       </c>
       <c r="I8" s="7">
-        <v>7312</v>
+        <v>108690</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2056,10 +2085,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>34</v>
+        <v>333</v>
       </c>
       <c r="N8" s="7">
-        <v>22591</v>
+        <v>221044</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2130,10 +2159,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>280</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>183783</v>
+        <v>28359</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2145,10 +2174,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>286</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>179467</v>
+        <v>15696</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2160,10 +2189,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>566</v>
+        <v>68</v>
       </c>
       <c r="N10" s="7">
-        <v>363250</v>
+        <v>44055</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2181,10 +2210,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>42</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>28359</v>
+        <v>183783</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2196,10 +2225,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>286</v>
       </c>
       <c r="I11" s="7">
-        <v>15696</v>
+        <v>179467</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2211,10 +2240,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>68</v>
+        <v>566</v>
       </c>
       <c r="N11" s="7">
-        <v>44055</v>
+        <v>363250</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2285,10 +2314,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>209</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>134291</v>
+        <v>15366</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2300,10 +2329,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>216</v>
+        <v>13</v>
       </c>
       <c r="I13" s="7">
-        <v>129948</v>
+        <v>7869</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2315,10 +2344,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>425</v>
+        <v>36</v>
       </c>
       <c r="N13" s="7">
-        <v>264238</v>
+        <v>23236</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2336,10 +2365,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>23</v>
+        <v>209</v>
       </c>
       <c r="D14" s="7">
-        <v>15366</v>
+        <v>134291</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2351,10 +2380,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>13</v>
+        <v>216</v>
       </c>
       <c r="I14" s="7">
-        <v>7869</v>
+        <v>129948</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2366,10 +2395,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>36</v>
+        <v>425</v>
       </c>
       <c r="N14" s="7">
-        <v>23236</v>
+        <v>264238</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2440,10 +2469,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>272</v>
+        <v>33</v>
       </c>
       <c r="D16" s="7">
-        <v>184914</v>
+        <v>22215</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>89</v>
@@ -2455,10 +2484,10 @@
         <v>91</v>
       </c>
       <c r="H16" s="7">
-        <v>244</v>
+        <v>30</v>
       </c>
       <c r="I16" s="7">
-        <v>186402</v>
+        <v>22913</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>92</v>
@@ -2470,10 +2499,10 @@
         <v>94</v>
       </c>
       <c r="M16" s="7">
-        <v>516</v>
+        <v>63</v>
       </c>
       <c r="N16" s="7">
-        <v>371317</v>
+        <v>45127</v>
       </c>
       <c r="O16" s="7" t="s">
         <v>95</v>
@@ -2491,10 +2520,10 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>33</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>22215</v>
+        <v>184914</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>98</v>
@@ -2506,10 +2535,10 @@
         <v>100</v>
       </c>
       <c r="H17" s="7">
-        <v>30</v>
+        <v>244</v>
       </c>
       <c r="I17" s="7">
-        <v>22913</v>
+        <v>186402</v>
       </c>
       <c r="J17" s="7" t="s">
         <v>101</v>
@@ -2521,10 +2550,10 @@
         <v>103</v>
       </c>
       <c r="M17" s="7">
-        <v>63</v>
+        <v>516</v>
       </c>
       <c r="N17" s="7">
-        <v>45127</v>
+        <v>371317</v>
       </c>
       <c r="O17" s="7" t="s">
         <v>104</v>
@@ -2595,10 +2624,10 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>961</v>
+        <v>124</v>
       </c>
       <c r="D19" s="7">
-        <v>638527</v>
+        <v>83478</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>107</v>
@@ -2607,37 +2636,37 @@
         <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="H19" s="7">
+        <v>83</v>
+      </c>
+      <c r="I19" s="7">
+        <v>56243</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="H19" s="7">
-        <v>935</v>
-      </c>
-      <c r="I19" s="7">
-        <v>624778</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>110</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>111</v>
       </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>207</v>
+      </c>
+      <c r="N19" s="7">
+        <v>139721</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="M19" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1263305</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>113</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2646,49 +2675,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>124</v>
+        <v>961</v>
       </c>
       <c r="D20" s="7">
-        <v>83478</v>
+        <v>638527</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="H20" s="7">
+        <v>935</v>
+      </c>
+      <c r="I20" s="7">
+        <v>624778</v>
+      </c>
+      <c r="J20" s="7" t="s">
         <v>117</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="K20" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="H20" s="7">
-        <v>83</v>
-      </c>
-      <c r="I20" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1896</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1263305</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="L20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="M20" s="7">
-        <v>207</v>
-      </c>
-      <c r="N20" s="7">
-        <v>139721</v>
-      </c>
-      <c r="O20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2740,6 +2769,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2760,8 +2794,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D196BBF-22A0-4335-A1E8-ED196E7CD938}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15685B73-0C7E-4055-AC30-EFF8700CBE6B}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2777,7 +2811,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2878,49 +2912,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="D4" s="7">
-        <v>20772</v>
+        <v>4683</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F4" s="7" t="s">
         <v>126</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="G4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="H4" s="7">
+        <v>3</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2745</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="H4" s="7">
-        <v>23</v>
-      </c>
-      <c r="I4" s="7">
-        <v>19628</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="K4" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>8</v>
+      </c>
+      <c r="N4" s="7">
+        <v>7428</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="7">
-        <v>46</v>
-      </c>
-      <c r="N4" s="7">
-        <v>40400</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>132</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2929,49 +2963,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>4683</v>
+        <v>20772</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>135</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>136</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>23</v>
+      </c>
+      <c r="I5" s="7">
+        <v>19628</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="H5" s="7">
-        <v>3</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2745</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>138</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="L5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>46</v>
+      </c>
+      <c r="N5" s="7">
+        <v>40400</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="M5" s="7">
-        <v>8</v>
-      </c>
-      <c r="N5" s="7">
-        <v>7428</v>
-      </c>
-      <c r="O5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3033,49 +3067,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>165</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7">
-        <v>115885</v>
+        <v>13344</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>15</v>
+      </c>
+      <c r="I7" s="7">
+        <v>11320</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H7" s="7">
+      <c r="L7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="M7" s="7">
+        <v>33</v>
+      </c>
+      <c r="N7" s="7">
+        <v>24665</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="I7" s="7">
-        <v>105664</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>149</v>
       </c>
-      <c r="M7" s="7">
-        <v>313</v>
-      </c>
-      <c r="N7" s="7">
-        <v>221548</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3084,49 +3118,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>18</v>
+        <v>165</v>
       </c>
       <c r="D8" s="7">
-        <v>13344</v>
+        <v>115885</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="H8" s="7">
+        <v>148</v>
+      </c>
+      <c r="I8" s="7">
+        <v>105664</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="H8" s="7">
-        <v>15</v>
-      </c>
-      <c r="I8" s="7">
-        <v>11320</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>313</v>
+      </c>
+      <c r="N8" s="7">
+        <v>221548</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="M8" s="7">
-        <v>33</v>
-      </c>
-      <c r="N8" s="7">
-        <v>24665</v>
-      </c>
-      <c r="O8" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3188,49 +3222,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>279</v>
+        <v>45</v>
       </c>
       <c r="D10" s="7">
-        <v>192413</v>
+        <v>31422</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="H10" s="7">
+        <v>44</v>
+      </c>
+      <c r="I10" s="7">
+        <v>27806</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="H10" s="7">
-        <v>275</v>
-      </c>
-      <c r="I10" s="7">
-        <v>178552</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>89</v>
+      </c>
+      <c r="N10" s="7">
+        <v>59228</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="M10" s="7">
-        <v>554</v>
-      </c>
-      <c r="N10" s="7">
-        <v>370965</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3239,49 +3273,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>45</v>
+        <v>279</v>
       </c>
       <c r="D11" s="7">
-        <v>31422</v>
+        <v>192413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="H11" s="7">
+        <v>275</v>
+      </c>
+      <c r="I11" s="7">
+        <v>178552</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>172</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="H11" s="7">
-        <v>44</v>
-      </c>
-      <c r="I11" s="7">
-        <v>27806</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>554</v>
+      </c>
+      <c r="N11" s="7">
+        <v>370965</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>174</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>175</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>176</v>
-      </c>
-      <c r="M11" s="7">
-        <v>89</v>
-      </c>
-      <c r="N11" s="7">
-        <v>59228</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3343,49 +3377,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>217</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>141299</v>
+        <v>25293</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="H13" s="7">
+        <v>31</v>
+      </c>
+      <c r="I13" s="7">
+        <v>19870</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>180</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>181</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>182</v>
       </c>
-      <c r="H13" s="7">
-        <v>211</v>
-      </c>
-      <c r="I13" s="7">
-        <v>135506</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>70</v>
+      </c>
+      <c r="N13" s="7">
+        <v>45164</v>
+      </c>
+      <c r="O13" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>183</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="M13" s="7">
-        <v>428</v>
-      </c>
-      <c r="N13" s="7">
-        <v>276804</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>186</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3394,49 +3428,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>39</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>25293</v>
+        <v>141299</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="H14" s="7">
+        <v>211</v>
+      </c>
+      <c r="I14" s="7">
+        <v>135506</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>189</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>428</v>
+      </c>
+      <c r="N14" s="7">
+        <v>276804</v>
+      </c>
+      <c r="O14" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>191</v>
       </c>
-      <c r="H14" s="7">
-        <v>31</v>
-      </c>
-      <c r="I14" s="7">
-        <v>19870</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="M14" s="7">
-        <v>70</v>
-      </c>
-      <c r="N14" s="7">
-        <v>45164</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>195</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>196</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3498,49 +3532,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>246</v>
+        <v>37</v>
       </c>
       <c r="D16" s="7">
-        <v>180719</v>
+        <v>27677</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="H16" s="7">
+        <v>29</v>
+      </c>
+      <c r="I16" s="7">
+        <v>21128</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="M16" s="7">
+        <v>66</v>
+      </c>
+      <c r="N16" s="7">
+        <v>48805</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>198</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="H16" s="7">
-        <v>245</v>
-      </c>
-      <c r="I16" s="7">
-        <v>188438</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="M16" s="7">
-        <v>491</v>
-      </c>
-      <c r="N16" s="7">
-        <v>369157</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3549,49 +3583,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>37</v>
+        <v>246</v>
       </c>
       <c r="D17" s="7">
-        <v>27677</v>
+        <v>180719</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="H17" s="7">
+        <v>245</v>
+      </c>
+      <c r="I17" s="7">
+        <v>188438</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="M17" s="7">
+        <v>491</v>
+      </c>
+      <c r="N17" s="7">
+        <v>369157</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>206</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="H17" s="7">
-        <v>29</v>
-      </c>
-      <c r="I17" s="7">
-        <v>21128</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="M17" s="7">
-        <v>66</v>
-      </c>
-      <c r="N17" s="7">
-        <v>48805</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3653,49 +3687,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>930</v>
+        <v>144</v>
       </c>
       <c r="D19" s="7">
-        <v>651088</v>
+        <v>102419</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H19" s="7">
+        <v>122</v>
+      </c>
+      <c r="I19" s="7">
+        <v>82869</v>
+      </c>
+      <c r="J19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M19" s="7">
+        <v>266</v>
+      </c>
+      <c r="N19" s="7">
+        <v>185289</v>
+      </c>
+      <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>214</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>215</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="H19" s="7">
-        <v>902</v>
-      </c>
-      <c r="I19" s="7">
-        <v>627788</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M19" s="7">
-        <v>1832</v>
-      </c>
-      <c r="N19" s="7">
-        <v>1278875</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3704,49 +3738,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>144</v>
+        <v>930</v>
       </c>
       <c r="D20" s="7">
-        <v>102419</v>
+        <v>651088</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H20" s="7">
+        <v>902</v>
+      </c>
+      <c r="I20" s="7">
+        <v>627788</v>
+      </c>
+      <c r="J20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>221</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="M20" s="7">
+        <v>1832</v>
+      </c>
+      <c r="N20" s="7">
+        <v>1278875</v>
+      </c>
+      <c r="O20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="G20" s="7" t="s">
+      <c r="P20" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="H20" s="7">
-        <v>122</v>
-      </c>
-      <c r="I20" s="7">
-        <v>82869</v>
-      </c>
-      <c r="J20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="M20" s="7">
-        <v>266</v>
-      </c>
-      <c r="N20" s="7">
-        <v>185289</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3798,6 +3832,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3818,8 +3857,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF2D88F-4736-49F4-9E47-C495658E207D}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B414D2F-E1B0-4BFD-909E-C2CB9A5BC868}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3835,7 +3874,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3936,49 +3975,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>28</v>
+        <v>2</v>
       </c>
       <c r="D4" s="7">
-        <v>24540</v>
+        <v>1034</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="H4" s="7">
+        <v>2</v>
+      </c>
+      <c r="I4" s="7">
+        <v>2232</v>
+      </c>
+      <c r="J4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="K4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>230</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="M4" s="7">
+        <v>4</v>
+      </c>
+      <c r="N4" s="7">
+        <v>3267</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>231</v>
       </c>
-      <c r="H4" s="7">
-        <v>22</v>
-      </c>
-      <c r="I4" s="7">
-        <v>20295</v>
-      </c>
-      <c r="J4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M4" s="7">
-        <v>50</v>
-      </c>
-      <c r="N4" s="7">
-        <v>44834</v>
-      </c>
-      <c r="O4" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3987,49 +4026,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="D5" s="7">
-        <v>1034</v>
+        <v>24540</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>22</v>
+      </c>
+      <c r="I5" s="7">
+        <v>20295</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
         <v>238</v>
       </c>
-      <c r="H5" s="7">
-        <v>2</v>
-      </c>
-      <c r="I5" s="7">
-        <v>2232</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="L5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="M5" s="7">
+        <v>50</v>
+      </c>
+      <c r="N5" s="7">
+        <v>44834</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>237</v>
-      </c>
-      <c r="L5" s="7" t="s">
+      <c r="P5" s="7" t="s">
         <v>240</v>
       </c>
-      <c r="M5" s="7">
-        <v>4</v>
-      </c>
-      <c r="N5" s="7">
-        <v>3267</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="P5" s="7" t="s">
+      <c r="Q5" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4091,49 +4130,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>150</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>111685</v>
+        <v>8675</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="F7" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="F7" s="7" t="s">
+      <c r="G7" s="7" t="s">
         <v>244</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="H7" s="7">
+        <v>9</v>
+      </c>
+      <c r="I7" s="7">
+        <v>5936</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>245</v>
       </c>
-      <c r="H7" s="7">
-        <v>154</v>
-      </c>
-      <c r="I7" s="7">
-        <v>105244</v>
-      </c>
-      <c r="J7" s="7" t="s">
+      <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>246</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L7" s="7" t="s">
+      <c r="M7" s="7">
+        <v>21</v>
+      </c>
+      <c r="N7" s="7">
+        <v>14612</v>
+      </c>
+      <c r="O7" s="7" t="s">
         <v>247</v>
       </c>
-      <c r="M7" s="7">
-        <v>304</v>
-      </c>
-      <c r="N7" s="7">
-        <v>216928</v>
-      </c>
-      <c r="O7" s="7" t="s">
+      <c r="P7" s="7" t="s">
         <v>248</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>249</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4142,49 +4181,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>12</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7">
-        <v>8675</v>
+        <v>111685</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>251</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>252</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>154</v>
+      </c>
+      <c r="I8" s="7">
+        <v>105244</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>253</v>
       </c>
-      <c r="H8" s="7">
-        <v>9</v>
-      </c>
-      <c r="I8" s="7">
-        <v>5936</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>254</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="M8" s="7">
+        <v>304</v>
+      </c>
+      <c r="N8" s="7">
+        <v>216928</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>255</v>
       </c>
-      <c r="L8" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="M8" s="7">
-        <v>21</v>
-      </c>
-      <c r="N8" s="7">
-        <v>14612</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>256</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>257</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4246,49 +4285,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>304</v>
+        <v>28</v>
       </c>
       <c r="D10" s="7">
-        <v>204318</v>
+        <v>20041</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>258</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>259</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>31</v>
+      </c>
+      <c r="I10" s="7">
+        <v>19596</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>261</v>
       </c>
-      <c r="H10" s="7">
-        <v>302</v>
-      </c>
-      <c r="I10" s="7">
-        <v>187174</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>59</v>
+      </c>
+      <c r="N10" s="7">
+        <v>39636</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="M10" s="7">
-        <v>606</v>
-      </c>
-      <c r="N10" s="7">
-        <v>391493</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4297,49 +4336,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>28</v>
+        <v>304</v>
       </c>
       <c r="D11" s="7">
-        <v>20041</v>
+        <v>204318</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>269</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>302</v>
+      </c>
+      <c r="I11" s="7">
+        <v>187174</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>270</v>
       </c>
-      <c r="H11" s="7">
-        <v>31</v>
-      </c>
-      <c r="I11" s="7">
-        <v>19596</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>272</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>606</v>
+      </c>
+      <c r="N11" s="7">
+        <v>391493</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>273</v>
       </c>
-      <c r="M11" s="7">
-        <v>59</v>
-      </c>
-      <c r="N11" s="7">
-        <v>39636</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>275</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4401,28 +4440,28 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>233</v>
+        <v>14</v>
       </c>
       <c r="D13" s="7">
-        <v>156675</v>
+        <v>9068</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>278</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>16</v>
+      </c>
+      <c r="I13" s="7">
+        <v>9532</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="H13" s="7">
-        <v>242</v>
-      </c>
-      <c r="I13" s="7">
-        <v>145700</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>261</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>280</v>
@@ -4431,10 +4470,10 @@
         <v>281</v>
       </c>
       <c r="M13" s="7">
-        <v>475</v>
+        <v>30</v>
       </c>
       <c r="N13" s="7">
-        <v>302374</v>
+        <v>18601</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>282</v>
@@ -4452,10 +4491,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="D14" s="7">
-        <v>9068</v>
+        <v>156675</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>285</v>
@@ -4467,34 +4506,34 @@
         <v>287</v>
       </c>
       <c r="H14" s="7">
-        <v>16</v>
+        <v>242</v>
       </c>
       <c r="I14" s="7">
-        <v>9532</v>
+        <v>145700</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="M14" s="7">
-        <v>30</v>
+        <v>475</v>
       </c>
       <c r="N14" s="7">
-        <v>18601</v>
+        <v>302374</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4556,49 +4595,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>272</v>
+        <v>18</v>
       </c>
       <c r="D16" s="7">
-        <v>193107</v>
+        <v>12629</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>261</v>
+        <v>279</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
-        <v>265</v>
+        <v>15</v>
       </c>
       <c r="I16" s="7">
-        <v>196169</v>
+        <v>10350</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
-        <v>537</v>
+        <v>33</v>
       </c>
       <c r="N16" s="7">
-        <v>389277</v>
+        <v>22978</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4607,49 +4646,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>272</v>
       </c>
       <c r="D17" s="7">
-        <v>12629</v>
+        <v>193107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>269</v>
+        <v>288</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
-        <v>15</v>
+        <v>265</v>
       </c>
       <c r="I17" s="7">
-        <v>10350</v>
+        <v>196169</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="M17" s="7">
-        <v>33</v>
+        <v>537</v>
       </c>
       <c r="N17" s="7">
-        <v>22978</v>
+        <v>389277</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4711,49 +4750,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>987</v>
+        <v>74</v>
       </c>
       <c r="D19" s="7">
-        <v>690325</v>
+        <v>51447</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>298</v>
+        <v>312</v>
       </c>
       <c r="H19" s="7">
-        <v>985</v>
+        <v>73</v>
       </c>
       <c r="I19" s="7">
-        <v>654581</v>
+        <v>47647</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>202</v>
+        <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>311</v>
+        <v>276</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="M19" s="7">
-        <v>1972</v>
+        <v>147</v>
       </c>
       <c r="N19" s="7">
-        <v>1344907</v>
+        <v>99093</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4762,49 +4801,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>74</v>
+        <v>987</v>
       </c>
       <c r="D20" s="7">
-        <v>51447</v>
+        <v>690325</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="H20" s="7">
-        <v>73</v>
+        <v>985</v>
       </c>
       <c r="I20" s="7">
-        <v>47647</v>
+        <v>654581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="M20" s="7">
-        <v>147</v>
+        <v>1972</v>
       </c>
       <c r="N20" s="7">
-        <v>99093</v>
+        <v>1344907</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4856,6 +4895,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4876,8 +4920,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D06FC866-D916-4D76-A16D-E9B54643962F}">
-  <dimension ref="A1:Q21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2D7F60-3968-4957-835C-D556A76C54B0}">
+  <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4893,7 +4937,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4994,49 +5038,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="D4" s="7">
-        <v>10195</v>
+        <v>2503</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
-        <v>25</v>
+        <v>3</v>
       </c>
       <c r="I4" s="7">
-        <v>15319</v>
+        <v>1468</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="N4" s="7">
-        <v>25514</v>
+        <v>3971</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5045,49 +5089,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="D5" s="7">
-        <v>2503</v>
+        <v>10195</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="H5" s="7">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="I5" s="7">
-        <v>1468</v>
+        <v>15319</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="N5" s="7">
-        <v>3971</v>
+        <v>25514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5149,49 +5193,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="D7" s="7">
-        <v>98341</v>
+        <v>16255</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H7" s="7">
-        <v>152</v>
+        <v>16</v>
       </c>
       <c r="I7" s="7">
-        <v>93386</v>
+        <v>10509</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="M7" s="7">
-        <v>288</v>
+        <v>32</v>
       </c>
       <c r="N7" s="7">
-        <v>191726</v>
+        <v>26764</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5200,49 +5244,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>16</v>
+        <v>136</v>
       </c>
       <c r="D8" s="7">
-        <v>16255</v>
+        <v>98341</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="H8" s="7">
-        <v>16</v>
+        <v>152</v>
       </c>
       <c r="I8" s="7">
-        <v>10509</v>
+        <v>93386</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="M8" s="7">
-        <v>32</v>
+        <v>288</v>
       </c>
       <c r="N8" s="7">
-        <v>26764</v>
+        <v>191726</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5304,40 +5348,40 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>303</v>
+        <v>38</v>
       </c>
       <c r="D10" s="7">
-        <v>222645</v>
+        <v>25328</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="H10" s="7">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>173896</v>
+        <v>18456</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7">
-        <v>557</v>
+        <v>64</v>
       </c>
       <c r="N10" s="7">
-        <v>396541</v>
+        <v>43784</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>364</v>
@@ -5355,10 +5399,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>38</v>
+        <v>303</v>
       </c>
       <c r="D11" s="7">
-        <v>25328</v>
+        <v>222645</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>367</v>
@@ -5370,34 +5414,34 @@
         <v>369</v>
       </c>
       <c r="H11" s="7">
-        <v>26</v>
+        <v>254</v>
       </c>
       <c r="I11" s="7">
-        <v>18456</v>
+        <v>173896</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>370</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>371</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>557</v>
+      </c>
+      <c r="N11" s="7">
+        <v>396541</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>372</v>
       </c>
-      <c r="M11" s="7">
-        <v>64</v>
-      </c>
-      <c r="N11" s="7">
-        <v>43784</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="P11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>375</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5459,43 +5503,43 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>154082</v>
+        <v>19126</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="F13" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="G13" s="7" t="s">
         <v>377</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>21</v>
+      </c>
+      <c r="I13" s="7">
+        <v>14430</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="H13" s="7">
-        <v>204</v>
-      </c>
-      <c r="I13" s="7">
-        <v>152996</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>380</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>47</v>
+      </c>
+      <c r="N13" s="7">
+        <v>33556</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="M13" s="7">
-        <v>403</v>
-      </c>
-      <c r="N13" s="7">
-        <v>307078</v>
-      </c>
-      <c r="O13" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>382</v>
@@ -5510,10 +5554,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>26</v>
+        <v>199</v>
       </c>
       <c r="D14" s="7">
-        <v>19126</v>
+        <v>154082</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>384</v>
@@ -5525,10 +5569,10 @@
         <v>386</v>
       </c>
       <c r="H14" s="7">
-        <v>21</v>
+        <v>204</v>
       </c>
       <c r="I14" s="7">
-        <v>14430</v>
+        <v>152996</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>387</v>
@@ -5540,19 +5584,19 @@
         <v>389</v>
       </c>
       <c r="M14" s="7">
-        <v>47</v>
+        <v>403</v>
       </c>
       <c r="N14" s="7">
-        <v>33556</v>
+        <v>307078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>61</v>
+        <v>390</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5614,49 +5658,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="D16" s="7">
-        <v>148677</v>
+        <v>26339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="H16" s="7">
-        <v>217</v>
+        <v>23</v>
       </c>
       <c r="I16" s="7">
-        <v>155930</v>
+        <v>16013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>278</v>
+        <v>396</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="L16" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="M16" s="7">
+        <v>59</v>
+      </c>
+      <c r="N16" s="7">
+        <v>42352</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>396</v>
       </c>
-      <c r="M16" s="7">
-        <v>419</v>
-      </c>
-      <c r="N16" s="7">
-        <v>304606</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>397</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="Q16" s="7" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5665,49 +5709,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>36</v>
+        <v>202</v>
       </c>
       <c r="D17" s="7">
-        <v>26339</v>
+        <v>148677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
-        <v>23</v>
+        <v>217</v>
       </c>
       <c r="I17" s="7">
-        <v>16013</v>
+        <v>155930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>287</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="M17" s="7">
+        <v>419</v>
+      </c>
+      <c r="N17" s="7">
+        <v>304606</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="M17" s="7">
-        <v>59</v>
-      </c>
-      <c r="N17" s="7">
-        <v>42352</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>405</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5769,49 +5813,49 @@
         <v>10</v>
       </c>
       <c r="C19" s="7">
-        <v>855</v>
+        <v>120</v>
       </c>
       <c r="D19" s="7">
-        <v>633940</v>
+        <v>89551</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>150</v>
+        <v>411</v>
       </c>
       <c r="H19" s="7">
-        <v>852</v>
+        <v>89</v>
       </c>
       <c r="I19" s="7">
-        <v>591527</v>
+        <v>60876</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="M19" s="7">
-        <v>1707</v>
+        <v>209</v>
       </c>
       <c r="N19" s="7">
-        <v>1225466</v>
+        <v>150428</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5820,49 +5864,49 @@
         <v>20</v>
       </c>
       <c r="C20" s="7">
-        <v>120</v>
+        <v>855</v>
       </c>
       <c r="D20" s="7">
-        <v>89551</v>
+        <v>633940</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>159</v>
+        <v>419</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="H20" s="7">
-        <v>89</v>
+        <v>852</v>
       </c>
       <c r="I20" s="7">
-        <v>60876</v>
+        <v>591527</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="M20" s="7">
-        <v>209</v>
+        <v>1707</v>
       </c>
       <c r="N20" s="7">
-        <v>150428</v>
+        <v>1225466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5914,6 +5958,11 @@
       </c>
       <c r="Q21" s="7" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{14781DCD-FC65-4C8B-A3D8-D9A69F59AA58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A567CFAB-ED1D-49A8-A28E-DD1230701C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D0481F47-0D76-4EC2-BD86-603BA20F54E8}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B0882DD-C5D6-4FA7-825F-1B6C6856C3D6}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
   <si>
     <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Sí</t>
@@ -77,28 +77,28 @@
     <t>8,87%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>21,21%</t>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
   </si>
   <si>
     <t>10,8%</t>
   </si>
   <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>27,73%</t>
   </si>
   <si>
     <t>9,78%</t>
   </si>
   <si>
-    <t>3,73%</t>
-  </si>
-  <si>
-    <t>20,27%</t>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>20,07%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,1219 +107,1213 @@
     <t>91,13%</t>
   </si>
   <si>
-    <t>78,79%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
+    <t>76,16%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
   </si>
   <si>
     <t>89,2%</t>
   </si>
   <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
+    <t>72,27%</t>
+  </si>
+  <si>
+    <t>97,31%</t>
   </si>
   <si>
     <t>90,22%</t>
   </si>
   <si>
-    <t>79,73%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>11,97%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>17,49%</t>
   </si>
   <si>
     <t>6,3%</t>
   </si>
   <si>
-    <t>3,49%</t>
-  </si>
-  <si>
-    <t>11,03%</t>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
   </si>
   <si>
     <t>9,27%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>12,81%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>89,22%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>87,19%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>13,37%</t>
+  </si>
+  <si>
+    <t>9,92%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>13,57%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>90,08%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,43%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,62%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>9,32%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>11,12%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>93,38%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,68%</t>
+  </si>
+  <si>
+    <t>96,79%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>93,99%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,53%</t>
+  </si>
+  <si>
+    <t>15,04%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,64%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>85,39%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>84,96%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,36%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>86,17%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,73%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>31,75%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>29,1%</t>
+  </si>
+  <si>
+    <t>81,6%</t>
+  </si>
+  <si>
+    <t>62,62%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>70,9%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>10,02%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>13,67%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>85,19%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>89,98%</t>
+  </si>
+  <si>
+    <t>86,33%</t>
+  </si>
+  <si>
+    <t>92,99%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>18,21%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>17,18%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
+    <t>16,59%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,79%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,82%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,41%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,35%</t>
+  </si>
+  <si>
+    <t>20,04%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>88,65%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,83%</t>
+  </si>
+  <si>
+    <t>88,9%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>17,86%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>14,25%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>82,14%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>85,75%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,56%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
+  </si>
+  <si>
+    <t>15,68%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,32%</t>
+  </si>
+  <si>
+    <t>88,46%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>9,91%</t>
+  </si>
+  <si>
+    <t>29,48%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>95,96%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>90,09%</t>
+  </si>
+  <si>
+    <t>70,52%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>9,65%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>90,35%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
   </si>
   <si>
     <t>12,37%</t>
   </si>
   <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>88,97%</t>
-  </si>
-  <si>
-    <t>96,51%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>12,91%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>11,72%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
   </si>
   <si>
     <t>87,63%</t>
   </si>
   <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>13,37%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>11,24%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>13,45%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,44%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,76%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,55%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>15,36%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,09%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,28%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>8,9%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>10,0%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>91,1%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,0%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>8,16%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>97,2%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>8,52%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,48%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>94,15%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>42,74%</t>
+  </si>
+  <si>
+    <t>8,74%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>22,74%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>80,29%</t>
+  </si>
+  <si>
+    <t>57,26%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>91,26%</t>
+  </si>
+  <si>
+    <t>77,26%</t>
+  </si>
+  <si>
+    <t>97,62%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>14,18%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>33,01%</t>
+  </si>
+  <si>
+    <t>10,11%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>15,78%</t>
+  </si>
+  <si>
+    <t>12,25%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>23,42%</t>
+  </si>
+  <si>
+    <t>85,82%</t>
+  </si>
+  <si>
+    <t>66,99%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>89,89%</t>
+  </si>
+  <si>
+    <t>84,22%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>87,75%</t>
+  </si>
+  <si>
+    <t>76,58%</t>
+  </si>
+  <si>
+    <t>91,8%</t>
+  </si>
+  <si>
+    <t>10,21%</t>
+  </si>
+  <si>
+    <t>7,34%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,1%</t>
+  </si>
+  <si>
+    <t>89,79%</t>
+  </si>
+  <si>
+    <t>92,66%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>90,06%</t>
+  </si>
+  <si>
+    <t>86,9%</t>
+  </si>
+  <si>
+    <t>92,09%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>16,47%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>13,41%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>83,53%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>86,59%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>15,05%</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>20,66%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>12,21%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>15,71%</t>
+  </si>
+  <si>
+    <t>84,95%</t>
+  </si>
+  <si>
+    <t>79,34%</t>
+  </si>
+  <si>
+    <t>88,85%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>86,21%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>87,79%</t>
+  </si>
+  <si>
+    <t>84,29%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>12,38%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>11,57%</t>
+  </si>
+  <si>
+    <t>10,93%</t>
   </si>
   <si>
     <t>9,43%</t>
   </si>
   <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>11,07%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>84,64%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
+    <t>12,7%</t>
+  </si>
+  <si>
+    <t>87,62%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
+  </si>
+  <si>
+    <t>89,72%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,43%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>89,07%</t>
+  </si>
+  <si>
+    <t>87,3%</t>
   </si>
   <si>
     <t>90,57%</t>
-  </si>
-  <si>
-    <t>96,77%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,93%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,76%</t>
-  </si>
-  <si>
-    <t>14,74%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>85,26%</t>
-  </si>
-  <si>
-    <t>92,24%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,32%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>10,2%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>89,8%</t>
-  </si>
-  <si>
-    <t>93,46%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>38,66%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>30,71%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>27,28%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>61,34%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>69,29%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>72,72%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>15,22%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,14%</t>
-  </si>
-  <si>
-    <t>13,52%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>83,26%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>84,78%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,48%</t>
-  </si>
-  <si>
-    <t>92,86%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,61%</t>
-  </si>
-  <si>
-    <t>17,99%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>10,36%</t>
-  </si>
-  <si>
-    <t>17,32%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,19%</t>
-  </si>
-  <si>
-    <t>16,56%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>89,39%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,68%</t>
-  </si>
-  <si>
-    <t>89,64%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,44%</t>
-  </si>
-  <si>
-    <t>88,81%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>17,37%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>17,28%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>82,63%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>14,3%</t>
-  </si>
-  <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
-  </si>
-  <si>
-    <t>85,7%</t>
-  </si>
-  <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,44%</t>
-  </si>
-  <si>
-    <t>15,56%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,79%</t>
-  </si>
-  <si>
-    <t>13,69%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,26%</t>
-  </si>
-  <si>
-    <t>14,1%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,44%</t>
-  </si>
-  <si>
-    <t>88,56%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>86,31%</t>
-  </si>
-  <si>
-    <t>90,21%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,9%</t>
-  </si>
-  <si>
-    <t>88,74%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2015 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>29,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>16,66%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>85,91%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>70,48%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>83,34%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>3,63%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>9,37%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>87,72%</t>
-  </si>
-  <si>
-    <t>96,37%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,63%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>13,15%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,07%</t>
-  </si>
-  <si>
-    <t>11,93%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>86,85%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,07%</t>
-  </si>
-  <si>
-    <t>92,93%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,19%</t>
-  </si>
-  <si>
-    <t>8,57%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>9,81%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,43%</t>
-  </si>
-  <si>
-    <t>96,81%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,19%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>3,69%</t>
-  </si>
-  <si>
-    <t>9,25%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>8,28%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>90,75%</t>
-  </si>
-  <si>
-    <t>96,31%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,72%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>43,81%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>27,16%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>56,19%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>97,61%</t>
-  </si>
-  <si>
-    <t>72,84%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>31,34%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>6,43%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>22,5%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>68,66%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,46%</t>
-  </si>
-  <si>
-    <t>93,57%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>77,5%</t>
-  </si>
-  <si>
-    <t>91,9%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,46%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>92,54%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>12,75%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>92,9%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>87,25%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,67%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>20,05%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>13,34%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
-  </si>
-  <si>
-    <t>15,46%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>79,95%</t>
-  </si>
-  <si>
-    <t>89,24%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>86,66%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,54%</t>
-  </si>
-  <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,17%</t>
-  </si>
-  <si>
-    <t>15,38%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>11,51%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>89,83%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>86,98%</t>
-  </si>
-  <si>
-    <t>90,6%</t>
   </si>
 </sst>
 </file>
@@ -1731,7 +1725,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2C61FC4-FCBC-4C4B-90F9-048D0AA9B23F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A24AA22-31AE-456D-B3AA-6B35BC9E4D63}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2630,13 +2624,13 @@
         <v>83478</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H19" s="7">
         <v>83</v>
@@ -2681,10 +2675,10 @@
         <v>638527</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>67</v>
       </c>
       <c r="G20" s="7" t="s">
         <v>116</v>
@@ -2794,7 +2788,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15685B73-0C7E-4055-AC30-EFF8700CBE6B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641B1C4-716F-428D-843C-E328A0C265D6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2951,10 +2945,10 @@
         <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2969,13 +2963,13 @@
         <v>20772</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>23</v>
@@ -2984,13 +2978,13 @@
         <v>19628</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>137</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="L5" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>46</v>
@@ -2999,13 +2993,13 @@
         <v>40400</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="P5" s="7" t="s">
         <v>140</v>
       </c>
-      <c r="P5" s="7" t="s">
-        <v>141</v>
-      </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3073,13 +3067,13 @@
         <v>13344</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>39</v>
+        <v>142</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="H7" s="7">
         <v>15</v>
@@ -3088,13 +3082,13 @@
         <v>11320</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>147</v>
       </c>
       <c r="M7" s="7">
         <v>33</v>
@@ -3103,13 +3097,13 @@
         <v>24665</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>148</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,13 +3118,13 @@
         <v>115885</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>49</v>
+        <v>150</v>
       </c>
       <c r="H8" s="7">
         <v>148</v>
@@ -3139,13 +3133,13 @@
         <v>105664</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>155</v>
       </c>
       <c r="M8" s="7">
         <v>313</v>
@@ -3154,13 +3148,13 @@
         <v>221548</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3228,13 +3222,13 @@
         <v>31422</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="H10" s="7">
         <v>44</v>
@@ -3243,13 +3237,13 @@
         <v>27806</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="M10" s="7">
         <v>89</v>
@@ -3258,13 +3252,13 @@
         <v>59228</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3279,13 +3273,13 @@
         <v>192413</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="H11" s="7">
         <v>275</v>
@@ -3294,13 +3288,13 @@
         <v>178552</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>173</v>
       </c>
       <c r="M11" s="7">
         <v>554</v>
@@ -3309,13 +3303,13 @@
         <v>370965</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3383,13 +3377,13 @@
         <v>25293</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="H13" s="7">
         <v>31</v>
@@ -3398,13 +3392,13 @@
         <v>19870</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>182</v>
       </c>
       <c r="M13" s="7">
         <v>70</v>
@@ -3413,13 +3407,13 @@
         <v>45164</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3434,13 +3428,13 @@
         <v>141299</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>185</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>187</v>
       </c>
       <c r="H14" s="7">
         <v>211</v>
@@ -3449,13 +3443,13 @@
         <v>135506</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>190</v>
       </c>
       <c r="M14" s="7">
         <v>428</v>
@@ -3464,7 +3458,7 @@
         <v>276804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>99</v>
+        <v>190</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>191</v>
@@ -3541,7 +3535,7 @@
         <v>193</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>112</v>
+        <v>75</v>
       </c>
       <c r="G16" s="7" t="s">
         <v>194</v>
@@ -3556,10 +3550,10 @@
         <v>195</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>71</v>
+        <v>196</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="M16" s="7">
         <v>66</v>
@@ -3568,13 +3562,13 @@
         <v>48805</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3589,13 +3583,13 @@
         <v>180719</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>120</v>
+        <v>83</v>
       </c>
       <c r="H17" s="7">
         <v>245</v>
@@ -3604,13 +3598,13 @@
         <v>188438</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>491</v>
@@ -3619,13 +3613,13 @@
         <v>369157</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3693,13 +3687,13 @@
         <v>102419</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="H19" s="7">
         <v>122</v>
@@ -3708,13 +3702,13 @@
         <v>82869</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>212</v>
+        <v>148</v>
       </c>
       <c r="M19" s="7">
         <v>266</v>
@@ -3723,13 +3717,13 @@
         <v>185289</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3744,13 +3738,13 @@
         <v>651088</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="H20" s="7">
         <v>902</v>
@@ -3759,10 +3753,10 @@
         <v>627788</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>220</v>
+        <v>155</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>221</v>
@@ -3857,7 +3851,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B414D2F-E1B0-4BFD-909E-C2CB9A5BC868}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDCB19A-BE63-4C28-A5B9-96AF40348FB3}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4017,7 +4011,7 @@
         <v>232</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4032,13 +4026,13 @@
         <v>24540</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>234</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>235</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>236</v>
       </c>
       <c r="H5" s="7">
         <v>22</v>
@@ -4047,13 +4041,13 @@
         <v>20295</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>236</v>
+      </c>
+      <c r="K5" s="7" t="s">
         <v>237</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>238</v>
-      </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="M5" s="7">
         <v>50</v>
@@ -4062,13 +4056,13 @@
         <v>44834</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>238</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>239</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4136,13 +4130,13 @@
         <v>8675</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>242</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="H7" s="7">
         <v>9</v>
@@ -4151,13 +4145,13 @@
         <v>5936</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>12</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>21</v>
@@ -4166,13 +4160,13 @@
         <v>14612</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>245</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>247</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4187,13 +4181,13 @@
         <v>111685</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>154</v>
@@ -4202,13 +4196,13 @@
         <v>105244</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>23</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>304</v>
@@ -4217,13 +4211,13 @@
         <v>216928</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,13 +4285,13 @@
         <v>20041</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>260</v>
       </c>
       <c r="H10" s="7">
         <v>31</v>
@@ -4306,13 +4300,13 @@
         <v>19596</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>260</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>262</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>263</v>
       </c>
       <c r="M10" s="7">
         <v>59</v>
@@ -4321,13 +4315,13 @@
         <v>39636</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>266</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4342,13 +4336,13 @@
         <v>204318</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>267</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>268</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>269</v>
       </c>
       <c r="H11" s="7">
         <v>302</v>
@@ -4357,13 +4351,13 @@
         <v>187174</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>270</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>271</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>272</v>
       </c>
       <c r="M11" s="7">
         <v>606</v>
@@ -4372,13 +4366,13 @@
         <v>391493</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>273</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>274</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>275</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4446,13 +4440,13 @@
         <v>9068</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>16</v>
@@ -4461,13 +4455,13 @@
         <v>9532</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>30</v>
@@ -4476,13 +4470,13 @@
         <v>18601</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4497,13 +4491,13 @@
         <v>156675</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>285</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>287</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -4512,13 +4506,13 @@
         <v>145700</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>288</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>290</v>
       </c>
       <c r="M14" s="7">
         <v>475</v>
@@ -4527,13 +4521,13 @@
         <v>302374</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>291</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>292</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4601,13 +4595,13 @@
         <v>12629</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="H16" s="7">
         <v>15</v>
@@ -4616,13 +4610,13 @@
         <v>10350</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>33</v>
@@ -4631,13 +4625,13 @@
         <v>22978</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4652,13 +4646,13 @@
         <v>193107</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="H17" s="7">
         <v>265</v>
@@ -4667,13 +4661,13 @@
         <v>196169</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>302</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>304</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="M17" s="7">
         <v>537</v>
@@ -4682,13 +4676,13 @@
         <v>389277</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>305</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4756,13 +4750,13 @@
         <v>51447</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>312</v>
       </c>
       <c r="H19" s="7">
         <v>73</v>
@@ -4774,10 +4768,10 @@
         <v>231</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="M19" s="7">
         <v>147</v>
@@ -4786,13 +4780,13 @@
         <v>99093</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>314</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>315</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4807,13 +4801,13 @@
         <v>690325</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>316</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>317</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>318</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>319</v>
       </c>
       <c r="H20" s="7">
         <v>985</v>
@@ -4822,13 +4816,13 @@
         <v>654581</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="K20" s="7" t="s">
+        <v>319</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>285</v>
       </c>
       <c r="M20" s="7">
         <v>1972</v>
@@ -4920,7 +4914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F2D7F60-3968-4957-835C-D556A76C54B0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10552713-10E1-4DB0-AD93-FC9CC144D787}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5074,7 +5068,7 @@
         <v>3971</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>331</v>
@@ -5125,7 +5119,7 @@
         <v>25514</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
         <v>339</v>
@@ -5360,7 +5354,7 @@
         <v>360</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>361</v>
+        <v>108</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
@@ -5369,13 +5363,13 @@
         <v>18456</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>362</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>363</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M10" s="7">
         <v>64</v>
@@ -5408,10 +5402,10 @@
         <v>367</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H11" s="7">
         <v>254</v>
@@ -5420,10 +5414,10 @@
         <v>173896</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="L11" s="7" t="s">
         <v>371</v>
@@ -5512,10 +5506,10 @@
         <v>375</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H13" s="7">
         <v>21</v>
@@ -5524,13 +5518,13 @@
         <v>14430</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>379</v>
-      </c>
       <c r="L13" s="7" t="s">
-        <v>380</v>
+        <v>40</v>
       </c>
       <c r="M13" s="7">
         <v>47</v>
@@ -5539,13 +5533,13 @@
         <v>33556</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>380</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>381</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>382</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5560,13 +5554,13 @@
         <v>154082</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>386</v>
+        <v>135</v>
       </c>
       <c r="H14" s="7">
         <v>204</v>
@@ -5575,13 +5569,13 @@
         <v>152996</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>48</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="M14" s="7">
         <v>403</v>
@@ -5590,13 +5584,13 @@
         <v>307078</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5664,13 +5658,13 @@
         <v>26339</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -5679,13 +5673,13 @@
         <v>16013</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="M16" s="7">
         <v>59</v>
@@ -5694,13 +5688,13 @@
         <v>42352</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>396</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5715,13 +5709,13 @@
         <v>148677</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="H17" s="7">
         <v>217</v>
@@ -5730,13 +5724,13 @@
         <v>155930</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="M17" s="7">
         <v>419</v>
@@ -5745,13 +5739,13 @@
         <v>304606</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5819,13 +5813,13 @@
         <v>89551</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>407</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>411</v>
       </c>
       <c r="H19" s="7">
         <v>89</v>
@@ -5834,13 +5828,13 @@
         <v>60876</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>410</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>412</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="M19" s="7">
         <v>209</v>
@@ -5849,13 +5843,13 @@
         <v>150428</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>413</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>415</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5870,13 +5864,13 @@
         <v>633940</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>416</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>418</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>420</v>
       </c>
       <c r="H20" s="7">
         <v>852</v>
@@ -5885,13 +5879,13 @@
         <v>591527</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>421</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>423</v>
       </c>
       <c r="M20" s="7">
         <v>1707</v>
@@ -5900,13 +5894,13 @@
         <v>1225466</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>426</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/IP08-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP08-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A567CFAB-ED1D-49A8-A28E-DD1230701C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0FC66A88-B66C-42FC-937D-7A7F2D4827DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7B0882DD-C5D6-4FA7-825F-1B6C6856C3D6}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{C204AD0A-2479-4A1B-B418-B45D123FCBC2}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="425">
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2007 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="350">
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2007 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,1252 +68,1027 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>10,8%</t>
-  </si>
-  <si>
-    <t>2,69%</t>
-  </si>
-  <si>
-    <t>27,73%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>3,71%</t>
-  </si>
-  <si>
-    <t>20,07%</t>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>11,0%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>16,43%</t>
+  </si>
+  <si>
+    <t>9,36%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>12,5%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>91,13%</t>
-  </si>
-  <si>
-    <t>76,16%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>89,2%</t>
-  </si>
-  <si>
-    <t>72,27%</t>
-  </si>
-  <si>
-    <t>97,31%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>79,93%</t>
-  </si>
-  <si>
-    <t>96,29%</t>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>89,0%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>83,57%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>90,64%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>6,5%</t>
-  </si>
-  <si>
-    <t>12,81%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>90,73%</t>
-  </si>
-  <si>
-    <t>87,19%</t>
-  </si>
-  <si>
-    <t>93,5%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,14%</t>
+  </si>
+  <si>
     <t>13,37%</t>
   </si>
   <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>17,58%</t>
+  </si>
+  <si>
+    <t>10,82%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>13,25%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>88,86%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>86,63%</t>
+  </si>
+  <si>
+    <t>82,42%</t>
+  </si>
+  <si>
+    <t>90,15%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>86,75%</t>
+  </si>
+  <si>
+    <t>91,55%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>8,08%</t>
+  </si>
+  <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>90,75%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>93,36%</t>
+  </si>
+  <si>
+    <t>91,92%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>7,52%</t>
+  </si>
+  <si>
+    <t>15,06%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,84%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>13,61%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>92,48%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>89,16%</t>
+  </si>
+  <si>
+    <t>86,39%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>10,17%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>9,79%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
+  </si>
+  <si>
+    <t>9,96%</t>
+  </si>
+  <si>
+    <t>8,77%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>89,83%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>88,44%</t>
+  </si>
+  <si>
+    <t>86,46%</t>
+  </si>
+  <si>
+    <t>90,21%</t>
+  </si>
+  <si>
+    <t>90,04%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2012 (Tasa respuesta: 99,95%)</t>
+  </si>
+  <si>
+    <t>10,09%</t>
+  </si>
+  <si>
+    <t>6,34%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>11,65%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>89,91%</t>
+  </si>
+  <si>
+    <t>84,38%</t>
+  </si>
+  <si>
+    <t>93,66%</t>
+  </si>
+  <si>
+    <t>88,35%</t>
+  </si>
+  <si>
+    <t>83,35%</t>
+  </si>
+  <si>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>13,47%</t>
+  </si>
+  <si>
+    <t>10,16%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>10,13%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>13,77%</t>
+  </si>
+  <si>
+    <t>11,16%</t>
+  </si>
+  <si>
+    <t>16,68%</t>
+  </si>
+  <si>
+    <t>86,53%</t>
+  </si>
+  <si>
+    <t>82,53%</t>
+  </si>
+  <si>
+    <t>89,84%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>81,81%</t>
+  </si>
+  <si>
+    <t>89,87%</t>
+  </si>
+  <si>
+    <t>86,23%</t>
+  </si>
+  <si>
+    <t>83,32%</t>
+  </si>
+  <si>
+    <t>88,84%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>20,02%</t>
+  </si>
+  <si>
+    <t>14,03%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>17,09%</t>
+  </si>
+  <si>
+    <t>87,21%</t>
+  </si>
+  <si>
+    <t>82,29%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>79,98%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>85,97%</t>
+  </si>
+  <si>
+    <t>82,91%</t>
+  </si>
+  <si>
+    <t>88,91%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,79%</t>
+  </si>
+  <si>
+    <t>13,62%</t>
+  </si>
+  <si>
+    <t>13,28%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,68%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>89,92%</t>
+  </si>
+  <si>
+    <t>86,38%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>86,72%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>88,32%</t>
+  </si>
+  <si>
+    <t>85,48%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>9,9%</t>
+  </si>
+  <si>
+    <t>13,59%</t>
+  </si>
+  <si>
+    <t>11,36%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>14,19%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>90,1%</t>
+  </si>
+  <si>
+    <t>86,41%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>88,64%</t>
+  </si>
+  <si>
+    <t>87,35%</t>
+  </si>
+  <si>
+    <t>85,81%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2016 (Tasa respuesta: 99,67%)</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>10,43%</t>
+  </si>
+  <si>
+    <t>6,65%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>89,57%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
+  </si>
+  <si>
+    <t>93,35%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>9,48%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>7,25%</t>
+  </si>
+  <si>
+    <t>11,82%</t>
+  </si>
+  <si>
+    <t>90,52%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>91,07%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>93,86%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>92,75%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
     <t>9,92%</t>
   </si>
   <si>
-    <t>17,2%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>5,58%</t>
-  </si>
-  <si>
-    <t>11,56%</t>
-  </si>
-  <si>
-    <t>10,82%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>13,57%</t>
-  </si>
-  <si>
-    <t>86,63%</t>
-  </si>
-  <si>
-    <t>82,8%</t>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>7,84%</t>
   </si>
   <si>
     <t>90,08%</t>
   </si>
   <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>88,44%</t>
-  </si>
-  <si>
-    <t>94,42%</t>
-  </si>
-  <si>
-    <t>89,18%</t>
-  </si>
-  <si>
-    <t>86,43%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,62%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>9,32%</t>
-  </si>
-  <si>
-    <t>8,08%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>11,12%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>93,38%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>90,68%</t>
-  </si>
-  <si>
-    <t>96,79%</t>
-  </si>
-  <si>
-    <t>91,92%</t>
-  </si>
-  <si>
-    <t>88,88%</t>
-  </si>
-  <si>
-    <t>93,99%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>10,72%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>14,61%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>15,04%</t>
-  </si>
-  <si>
-    <t>10,84%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>13,64%</t>
-  </si>
-  <si>
-    <t>89,28%</t>
-  </si>
-  <si>
-    <t>85,39%</t>
-  </si>
-  <si>
-    <t>92,52%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>84,96%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>89,16%</t>
-  </si>
-  <si>
-    <t>86,36%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>13,83%</t>
-  </si>
-  <si>
-    <t>8,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,96%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>86,17%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>91,74%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>93,36%</t>
-  </si>
-  <si>
-    <t>90,04%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2012 (Tasa respuesta: 99,95%)</t>
-  </si>
-  <si>
-    <t>18,4%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>37,38%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>31,75%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>29,1%</t>
-  </si>
-  <si>
-    <t>81,6%</t>
-  </si>
-  <si>
-    <t>62,62%</t>
-  </si>
-  <si>
-    <t>92,79%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>70,9%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>10,02%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>85,19%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>89,98%</t>
-  </si>
-  <si>
-    <t>86,33%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>14,04%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>18,21%</t>
-  </si>
-  <si>
-    <t>13,47%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>17,18%</t>
-  </si>
-  <si>
-    <t>13,77%</t>
-  </si>
-  <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>16,59%</t>
-  </si>
-  <si>
-    <t>85,96%</t>
-  </si>
-  <si>
-    <t>81,79%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>86,53%</t>
-  </si>
-  <si>
-    <t>82,82%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>86,23%</t>
-  </si>
-  <si>
-    <t>83,41%</t>
-  </si>
-  <si>
-    <t>88,86%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>11,35%</t>
-  </si>
-  <si>
-    <t>20,04%</t>
-  </si>
-  <si>
-    <t>12,79%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>14,03%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,17%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>79,96%</t>
-  </si>
-  <si>
-    <t>88,65%</t>
-  </si>
-  <si>
-    <t>87,21%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>85,97%</t>
-  </si>
-  <si>
-    <t>82,83%</t>
-  </si>
-  <si>
-    <t>88,9%</t>
-  </si>
-  <si>
-    <t>13,28%</t>
-  </si>
-  <si>
-    <t>17,86%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>14,25%</t>
-  </si>
-  <si>
-    <t>11,68%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>94,53%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>96,82%</t>
+  </si>
+  <si>
+    <t>94,2%</t>
+  </si>
+  <si>
+    <t>92,16%</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>5,57%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>90,63%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,43%</t>
+  </si>
+  <si>
+    <t>92,37%</t>
+  </si>
+  <si>
+    <t>95,97%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>91,93%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>Menores según si sufrieron alguna dolencia, enfermedad o impedimento que les haya limitado de forma continuada (más de 10 días en los últimos 12 meses) en 2023 (Tasa respuesta: 99,79%)</t>
+  </si>
+  <si>
+    <t>10,24%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>17,04%</t>
+  </si>
+  <si>
+    <t>40,17%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>25,85%</t>
+  </si>
+  <si>
+    <t>89,76%</t>
+  </si>
+  <si>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>93,59%</t>
+  </si>
+  <si>
+    <t>82,96%</t>
+  </si>
+  <si>
+    <t>59,83%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>22,73%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
   </si>
   <si>
     <t>14,44%</t>
   </si>
   <si>
-    <t>86,72%</t>
-  </si>
-  <si>
-    <t>82,14%</t>
-  </si>
-  <si>
-    <t>89,92%</t>
-  </si>
-  <si>
-    <t>85,75%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>88,32%</t>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
+  </si>
+  <si>
+    <t>77,27%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
   </si>
   <si>
     <t>85,56%</t>
   </si>
   <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>13,59%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>15,68%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>86,41%</t>
-  </si>
-  <si>
-    <t>84,32%</t>
-  </si>
-  <si>
-    <t>88,46%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>87,35%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2016 (Tasa respuesta: 99,67%)</t>
-  </si>
-  <si>
-    <t>4,04%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>14,52%</t>
-  </si>
-  <si>
-    <t>9,91%</t>
-  </si>
-  <si>
-    <t>29,48%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>95,96%</t>
-  </si>
-  <si>
-    <t>85,48%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>90,09%</t>
-  </si>
-  <si>
-    <t>70,52%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>9,72%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>9,65%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,28%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>90,35%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>9,48%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>12,91%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>11,72%</t>
-  </si>
-  <si>
-    <t>91,07%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,52%</t>
-  </si>
-  <si>
-    <t>87,09%</t>
-  </si>
-  <si>
-    <t>93,35%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>88,28%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>5,47%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>8,9%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>10,0%</t>
-  </si>
-  <si>
-    <t>5,8%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>94,53%</t>
-  </si>
-  <si>
-    <t>91,1%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>93,86%</t>
-  </si>
-  <si>
-    <t>90,0%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>94,2%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>3,7%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>8,16%</t>
-  </si>
-  <si>
-    <t>5,57%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>96,3%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>91,84%</t>
-  </si>
-  <si>
-    <t>97,2%</t>
-  </si>
-  <si>
-    <t>94,43%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>8,52%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>8,42%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>91,48%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>91,58%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>Menores según si sufrieron alguna dolencia o enfermedad continuada en 2023 (Tasa respuesta: 99,79%)</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>5,09%</t>
-  </si>
-  <si>
-    <t>42,74%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>22,74%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>80,29%</t>
-  </si>
-  <si>
-    <t>57,26%</t>
-  </si>
-  <si>
-    <t>94,91%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>77,26%</t>
-  </si>
-  <si>
-    <t>97,62%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>14,18%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>33,01%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>15,78%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>85,82%</t>
-  </si>
-  <si>
-    <t>66,99%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>89,89%</t>
-  </si>
-  <si>
-    <t>84,22%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>87,75%</t>
-  </si>
-  <si>
-    <t>76,58%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
-  </si>
-  <si>
-    <t>7,34%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>7,91%</t>
-  </si>
-  <si>
-    <t>13,1%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>92,66%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>90,06%</t>
-  </si>
-  <si>
-    <t>86,9%</t>
-  </si>
-  <si>
-    <t>92,09%</t>
-  </si>
-  <si>
-    <t>11,04%</t>
-  </si>
-  <si>
-    <t>16,47%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,44%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
-  </si>
-  <si>
-    <t>13,41%</t>
-  </si>
-  <si>
-    <t>88,96%</t>
-  </si>
-  <si>
-    <t>83,53%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>94,56%</t>
-  </si>
-  <si>
-    <t>90,15%</t>
-  </si>
-  <si>
-    <t>86,59%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>15,05%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>20,66%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>12,21%</t>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>17,6%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>12,75%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>82,4%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>87,25%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>14,16%</t>
+  </si>
+  <si>
+    <t>15,56%</t>
+  </si>
+  <si>
+    <t>20,84%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>16,04%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>85,84%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>84,44%</t>
+  </si>
+  <si>
+    <t>79,16%</t>
+  </si>
+  <si>
+    <t>87,44%</t>
+  </si>
+  <si>
+    <t>83,96%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
   </si>
   <si>
     <t>9,56%</t>
   </si>
   <si>
-    <t>15,71%</t>
-  </si>
-  <si>
-    <t>84,95%</t>
-  </si>
-  <si>
-    <t>79,34%</t>
-  </si>
-  <si>
-    <t>88,85%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>86,21%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>87,79%</t>
-  </si>
-  <si>
-    <t>84,29%</t>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>11,41%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>14,07%</t>
   </si>
   <si>
     <t>90,44%</t>
   </si>
   <si>
-    <t>12,38%</t>
-  </si>
-  <si>
-    <t>10,28%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>11,57%</t>
-  </si>
-  <si>
-    <t>10,93%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>12,7%</t>
-  </si>
-  <si>
-    <t>87,62%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>89,72%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,43%</t>
-  </si>
-  <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>89,07%</t>
-  </si>
-  <si>
-    <t>87,3%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>82,81%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>88,59%</t>
+  </si>
+  <si>
+    <t>85,93%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
   </si>
 </sst>
 </file>
@@ -1725,8 +1500,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A24AA22-31AE-456D-B3AA-6B35BC9E4D63}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C10A6B34-9B93-48D3-A340-22735D2D3D43}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1843,10 +1618,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D4" s="7">
-        <v>2258</v>
+        <v>9765</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1858,10 +1633,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="I4" s="7">
-        <v>2454</v>
+        <v>17537</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1873,10 +1648,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>6</v>
+        <v>40</v>
       </c>
       <c r="N4" s="7">
-        <v>4712</v>
+        <v>27303</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1894,10 +1669,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>30</v>
+        <v>189</v>
       </c>
       <c r="D5" s="7">
-        <v>23186</v>
+        <v>128961</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1909,10 +1684,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>26</v>
+        <v>200</v>
       </c>
       <c r="I5" s="7">
-        <v>20270</v>
+        <v>135540</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1924,10 +1699,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>56</v>
+        <v>389</v>
       </c>
       <c r="N5" s="7">
-        <v>43456</v>
+        <v>264500</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1945,10 +1720,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>33</v>
+        <v>203</v>
       </c>
       <c r="D6" s="7">
-        <v>25444</v>
+        <v>138726</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1960,10 +1735,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="I6" s="7">
-        <v>22724</v>
+        <v>153077</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1975,10 +1750,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>62</v>
+        <v>429</v>
       </c>
       <c r="N6" s="7">
-        <v>48168</v>
+        <v>291803</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1998,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>15279</v>
+        <v>15696</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -2013,10 +1788,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="I7" s="7">
-        <v>7312</v>
+        <v>28359</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -2028,10 +1803,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="N7" s="7">
-        <v>22591</v>
+        <v>44055</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -2049,10 +1824,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>170</v>
+        <v>286</v>
       </c>
       <c r="D8" s="7">
-        <v>112354</v>
+        <v>179467</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -2064,10 +1839,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>163</v>
+        <v>280</v>
       </c>
       <c r="I8" s="7">
-        <v>108690</v>
+        <v>183783</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -2079,10 +1854,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>333</v>
+        <v>566</v>
       </c>
       <c r="N8" s="7">
-        <v>221044</v>
+        <v>363250</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -2100,10 +1875,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D9" s="7">
-        <v>127633</v>
+        <v>195163</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2115,10 +1890,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>174</v>
+        <v>322</v>
       </c>
       <c r="I9" s="7">
-        <v>116002</v>
+        <v>212142</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2130,10 +1905,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>367</v>
+        <v>634</v>
       </c>
       <c r="N9" s="7">
-        <v>243635</v>
+        <v>407305</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2153,10 +1928,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7">
-        <v>28359</v>
+        <v>7869</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -2168,10 +1943,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="I10" s="7">
-        <v>15696</v>
+        <v>15366</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -2183,10 +1958,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>44055</v>
+        <v>23236</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -2204,10 +1979,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>280</v>
+        <v>216</v>
       </c>
       <c r="D11" s="7">
-        <v>183783</v>
+        <v>129948</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -2219,10 +1994,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>286</v>
+        <v>209</v>
       </c>
       <c r="I11" s="7">
-        <v>179467</v>
+        <v>134291</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -2234,10 +2009,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>566</v>
+        <v>425</v>
       </c>
       <c r="N11" s="7">
-        <v>363250</v>
+        <v>264238</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -2255,10 +2030,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>322</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>212142</v>
+        <v>137817</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2270,10 +2045,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>312</v>
+        <v>232</v>
       </c>
       <c r="I12" s="7">
-        <v>195163</v>
+        <v>149657</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2285,10 +2060,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>634</v>
+        <v>461</v>
       </c>
       <c r="N12" s="7">
-        <v>407305</v>
+        <v>287474</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2308,10 +2083,10 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7">
-        <v>15366</v>
+        <v>22913</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>70</v>
@@ -2323,10 +2098,10 @@
         <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="I13" s="7">
-        <v>7869</v>
+        <v>22215</v>
       </c>
       <c r="J13" s="7" t="s">
         <v>73</v>
@@ -2338,10 +2113,10 @@
         <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>63</v>
       </c>
       <c r="N13" s="7">
-        <v>23236</v>
+        <v>45127</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>76</v>
@@ -2359,10 +2134,10 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>209</v>
+        <v>244</v>
       </c>
       <c r="D14" s="7">
-        <v>134291</v>
+        <v>186402</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>79</v>
@@ -2374,10 +2149,10 @@
         <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>216</v>
+        <v>272</v>
       </c>
       <c r="I14" s="7">
-        <v>129948</v>
+        <v>184914</v>
       </c>
       <c r="J14" s="7" t="s">
         <v>82</v>
@@ -2389,10 +2164,10 @@
         <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>425</v>
+        <v>516</v>
       </c>
       <c r="N14" s="7">
-        <v>264238</v>
+        <v>371317</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>85</v>
@@ -2410,10 +2185,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>232</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>149657</v>
+        <v>209315</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2425,10 +2200,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>305</v>
       </c>
       <c r="I15" s="7">
-        <v>137817</v>
+        <v>207129</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2440,10 +2215,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>461</v>
+        <v>579</v>
       </c>
       <c r="N15" s="7">
-        <v>287474</v>
+        <v>416444</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2457,55 +2232,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7">
-        <v>22215</v>
+        <v>56243</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="G16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="H16" s="7">
+        <v>124</v>
+      </c>
+      <c r="I16" s="7">
+        <v>83478</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>30</v>
-      </c>
-      <c r="I16" s="7">
-        <v>22913</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>93</v>
       </c>
-      <c r="L16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>207</v>
+      </c>
+      <c r="N16" s="7">
+        <v>139721</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>94</v>
       </c>
-      <c r="M16" s="7">
-        <v>63</v>
-      </c>
-      <c r="N16" s="7">
-        <v>45127</v>
-      </c>
-      <c r="O16" s="7" t="s">
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2514,49 +2289,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>272</v>
+        <v>935</v>
       </c>
       <c r="D17" s="7">
-        <v>184914</v>
+        <v>624778</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>961</v>
+      </c>
+      <c r="I17" s="7">
+        <v>638527</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>244</v>
-      </c>
-      <c r="I17" s="7">
-        <v>186402</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>1896</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1263305</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="M17" s="7">
-        <v>516</v>
-      </c>
-      <c r="N17" s="7">
-        <v>371317</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2565,10 +2340,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>305</v>
+        <v>1018</v>
       </c>
       <c r="D18" s="7">
-        <v>207129</v>
+        <v>681021</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2580,10 +2355,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1085</v>
       </c>
       <c r="I18" s="7">
-        <v>209315</v>
+        <v>722005</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2595,10 +2370,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>579</v>
+        <v>2103</v>
       </c>
       <c r="N18" s="7">
-        <v>416444</v>
+        <v>1403026</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2611,171 +2386,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>124</v>
-      </c>
-      <c r="D19" s="7">
-        <v>83478</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="H19" s="7">
-        <v>83</v>
-      </c>
-      <c r="I19" s="7">
-        <v>56243</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="7">
-        <v>207</v>
-      </c>
-      <c r="N19" s="7">
-        <v>139721</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>961</v>
-      </c>
-      <c r="D20" s="7">
-        <v>638527</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="H20" s="7">
-        <v>935</v>
-      </c>
-      <c r="I20" s="7">
-        <v>624778</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1263305</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1085</v>
-      </c>
-      <c r="D21" s="7">
-        <v>722005</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I21" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2103</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1403026</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2788,8 +2407,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F641B1C4-716F-428D-843C-E328A0C265D6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857AFF64-C96F-4D82-9D43-1523F24FC06A}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2805,7 +2424,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2906,49 +2525,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="D4" s="7">
-        <v>4683</v>
+        <v>14065</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>2745</v>
+        <v>18027</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>8</v>
+        <v>41</v>
       </c>
       <c r="N4" s="7">
-        <v>7428</v>
+        <v>32092</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>132</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2957,49 +2576,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>171</v>
       </c>
       <c r="D5" s="7">
-        <v>20772</v>
+        <v>125292</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>135</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="I5" s="7">
-        <v>19628</v>
+        <v>136657</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>136</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>137</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>46</v>
+        <v>359</v>
       </c>
       <c r="N5" s="7">
-        <v>40400</v>
+        <v>261949</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>140</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>103</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3008,10 +2627,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>28</v>
+        <v>189</v>
       </c>
       <c r="D6" s="7">
-        <v>25455</v>
+        <v>139357</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -3023,10 +2642,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="I6" s="7">
-        <v>22373</v>
+        <v>154684</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3038,10 +2657,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>400</v>
       </c>
       <c r="N6" s="7">
-        <v>47828</v>
+        <v>294041</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3061,49 +2680,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>44</v>
       </c>
       <c r="D7" s="7">
-        <v>13344</v>
+        <v>27806</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>141</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="H7" s="7">
+        <v>45</v>
+      </c>
+      <c r="I7" s="7">
+        <v>31422</v>
+      </c>
+      <c r="J7" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>131</v>
       </c>
-      <c r="H7" s="7">
-        <v>15</v>
-      </c>
-      <c r="I7" s="7">
-        <v>11320</v>
-      </c>
-      <c r="J7" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>145</v>
-      </c>
       <c r="M7" s="7">
-        <v>33</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>24665</v>
+        <v>59228</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>146</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3112,49 +2731,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>165</v>
+        <v>275</v>
       </c>
       <c r="D8" s="7">
-        <v>115885</v>
+        <v>178552</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="H8" s="7">
+        <v>279</v>
+      </c>
+      <c r="I8" s="7">
+        <v>192413</v>
+      </c>
+      <c r="J8" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>139</v>
       </c>
-      <c r="G8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="H8" s="7">
-        <v>148</v>
-      </c>
-      <c r="I8" s="7">
-        <v>105664</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>313</v>
+        <v>554</v>
       </c>
       <c r="N8" s="7">
-        <v>221548</v>
+        <v>370965</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3163,10 +2782,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="D9" s="7">
-        <v>129229</v>
+        <v>206358</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3178,10 +2797,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>324</v>
       </c>
       <c r="I9" s="7">
-        <v>116984</v>
+        <v>223835</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3193,10 +2812,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>346</v>
+        <v>643</v>
       </c>
       <c r="N9" s="7">
-        <v>246213</v>
+        <v>430193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3216,49 +2835,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>45</v>
+        <v>31</v>
       </c>
       <c r="D10" s="7">
-        <v>31422</v>
+        <v>19870</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>158</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>159</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="I10" s="7">
-        <v>27806</v>
+        <v>25293</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>160</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>161</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>70</v>
       </c>
       <c r="N10" s="7">
-        <v>59228</v>
+        <v>45164</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>165</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3267,49 +2886,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>279</v>
+        <v>211</v>
       </c>
       <c r="D11" s="7">
-        <v>192413</v>
+        <v>135506</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
-        <v>275</v>
+        <v>217</v>
       </c>
       <c r="I11" s="7">
-        <v>178552</v>
+        <v>141299</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>171</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>554</v>
+        <v>428</v>
       </c>
       <c r="N11" s="7">
-        <v>370965</v>
+        <v>276804</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>172</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>173</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>174</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3318,10 +2937,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>324</v>
+        <v>242</v>
       </c>
       <c r="D12" s="7">
-        <v>223835</v>
+        <v>155376</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3333,10 +2952,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>319</v>
+        <v>256</v>
       </c>
       <c r="I12" s="7">
-        <v>206358</v>
+        <v>166592</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3348,10 +2967,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>643</v>
+        <v>498</v>
       </c>
       <c r="N12" s="7">
-        <v>430193</v>
+        <v>321968</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3371,49 +2990,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="D13" s="7">
-        <v>25293</v>
+        <v>21128</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>176</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>177</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="I13" s="7">
-        <v>19870</v>
+        <v>27677</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>180</v>
+        <v>128</v>
       </c>
       <c r="M13" s="7">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="N13" s="7">
-        <v>45164</v>
+        <v>48805</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>181</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>182</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>183</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3422,49 +3041,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>217</v>
+        <v>245</v>
       </c>
       <c r="D14" s="7">
-        <v>141299</v>
+        <v>188438</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>184</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>185</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>186</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>211</v>
+        <v>246</v>
       </c>
       <c r="I14" s="7">
-        <v>135506</v>
+        <v>180719</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>188</v>
+        <v>136</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="N14" s="7">
-        <v>276804</v>
+        <v>369157</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3473,10 +3092,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>256</v>
+        <v>274</v>
       </c>
       <c r="D15" s="7">
-        <v>166592</v>
+        <v>209566</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3488,10 +3107,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>242</v>
+        <v>283</v>
       </c>
       <c r="I15" s="7">
-        <v>155376</v>
+        <v>208396</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3503,10 +3122,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>498</v>
+        <v>557</v>
       </c>
       <c r="N15" s="7">
-        <v>321968</v>
+        <v>417962</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3520,55 +3139,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>37</v>
+        <v>122</v>
       </c>
       <c r="D16" s="7">
-        <v>27677</v>
+        <v>82869</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>75</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="H16" s="7">
-        <v>29</v>
+        <v>144</v>
       </c>
       <c r="I16" s="7">
-        <v>21128</v>
+        <v>102419</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="M16" s="7">
-        <v>66</v>
+        <v>266</v>
       </c>
       <c r="N16" s="7">
-        <v>48805</v>
+        <v>185289</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>199</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>200</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3577,49 +3196,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>246</v>
+        <v>902</v>
       </c>
       <c r="D17" s="7">
-        <v>180719</v>
+        <v>627788</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>201</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>202</v>
+        <v>101</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>83</v>
+        <v>186</v>
       </c>
       <c r="H17" s="7">
-        <v>245</v>
+        <v>930</v>
       </c>
       <c r="I17" s="7">
-        <v>188438</v>
+        <v>651088</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>188</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>189</v>
       </c>
       <c r="M17" s="7">
-        <v>491</v>
+        <v>1832</v>
       </c>
       <c r="N17" s="7">
-        <v>369157</v>
+        <v>1278875</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>190</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>191</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3628,10 +3247,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>283</v>
+        <v>1024</v>
       </c>
       <c r="D18" s="7">
-        <v>208396</v>
+        <v>710657</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3643,10 +3262,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>274</v>
+        <v>1074</v>
       </c>
       <c r="I18" s="7">
-        <v>209566</v>
+        <v>753507</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3658,10 +3277,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>557</v>
+        <v>2098</v>
       </c>
       <c r="N18" s="7">
-        <v>417962</v>
+        <v>1464164</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3674,171 +3293,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>144</v>
-      </c>
-      <c r="D19" s="7">
-        <v>102419</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="H19" s="7">
-        <v>122</v>
-      </c>
-      <c r="I19" s="7">
-        <v>82869</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="M19" s="7">
-        <v>266</v>
-      </c>
-      <c r="N19" s="7">
-        <v>185289</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>930</v>
-      </c>
-      <c r="D20" s="7">
-        <v>651088</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="H20" s="7">
-        <v>902</v>
-      </c>
-      <c r="I20" s="7">
-        <v>627788</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1832</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1278875</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1074</v>
-      </c>
-      <c r="D21" s="7">
-        <v>753507</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1024</v>
-      </c>
-      <c r="I21" s="7">
-        <v>710657</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2098</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1464164</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3851,8 +3314,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACDCB19A-BE63-4C28-A5B9-96AF40348FB3}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6418CFD4-A52A-463F-806C-AD04F68125D5}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3868,7 +3331,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>192</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3969,49 +3432,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>1034</v>
+        <v>8169</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>193</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>194</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>195</v>
       </c>
       <c r="H4" s="7">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>2232</v>
+        <v>9709</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>196</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>227</v>
+        <v>197</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>230</v>
+        <v>73</v>
       </c>
       <c r="M4" s="7">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="N4" s="7">
-        <v>3267</v>
+        <v>17878</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>231</v>
+        <v>198</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>232</v>
+        <v>199</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>211</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4020,49 +3483,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>28</v>
+        <v>176</v>
       </c>
       <c r="D5" s="7">
-        <v>24540</v>
+        <v>125538</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>201</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>202</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>235</v>
+        <v>203</v>
       </c>
       <c r="H5" s="7">
-        <v>22</v>
+        <v>178</v>
       </c>
       <c r="I5" s="7">
-        <v>20295</v>
+        <v>136225</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>236</v>
+        <v>204</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>237</v>
+        <v>82</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>235</v>
+        <v>205</v>
       </c>
       <c r="M5" s="7">
-        <v>50</v>
+        <v>354</v>
       </c>
       <c r="N5" s="7">
-        <v>44834</v>
+        <v>261763</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>206</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>218</v>
+        <v>207</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4071,10 +3534,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>30</v>
+        <v>187</v>
       </c>
       <c r="D6" s="7">
-        <v>25574</v>
+        <v>133707</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4086,10 +3549,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>24</v>
+        <v>192</v>
       </c>
       <c r="I6" s="7">
-        <v>22527</v>
+        <v>145934</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4101,10 +3564,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>54</v>
+        <v>379</v>
       </c>
       <c r="N6" s="7">
-        <v>48101</v>
+        <v>279641</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4124,49 +3587,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="D7" s="7">
-        <v>8675</v>
+        <v>19596</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>126</v>
+        <v>209</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>240</v>
+        <v>210</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>241</v>
+        <v>211</v>
       </c>
       <c r="H7" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="I7" s="7">
-        <v>5936</v>
+        <v>20041</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>212</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>214</v>
       </c>
       <c r="M7" s="7">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="N7" s="7">
-        <v>14612</v>
+        <v>39636</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>215</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>216</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>217</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4175,49 +3638,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>150</v>
+        <v>302</v>
       </c>
       <c r="D8" s="7">
-        <v>111685</v>
+        <v>187174</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>135</v>
+        <v>218</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>248</v>
+        <v>219</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>220</v>
       </c>
       <c r="H8" s="7">
-        <v>154</v>
+        <v>304</v>
       </c>
       <c r="I8" s="7">
-        <v>105244</v>
+        <v>204318</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>221</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>222</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>223</v>
       </c>
       <c r="M8" s="7">
-        <v>304</v>
+        <v>606</v>
       </c>
       <c r="N8" s="7">
-        <v>216928</v>
+        <v>391493</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>224</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>225</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4226,10 +3689,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>162</v>
+        <v>333</v>
       </c>
       <c r="D9" s="7">
-        <v>120360</v>
+        <v>206770</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4241,10 +3704,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>163</v>
+        <v>332</v>
       </c>
       <c r="I9" s="7">
-        <v>111180</v>
+        <v>224359</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4256,10 +3719,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>325</v>
+        <v>665</v>
       </c>
       <c r="N9" s="7">
-        <v>231540</v>
+        <v>431129</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4279,49 +3742,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D10" s="7">
-        <v>20041</v>
+        <v>9532</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>213</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>228</v>
       </c>
       <c r="H10" s="7">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="I10" s="7">
-        <v>19596</v>
+        <v>9068</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>229</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="M10" s="7">
-        <v>59</v>
+        <v>30</v>
       </c>
       <c r="N10" s="7">
-        <v>39636</v>
+        <v>18601</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4330,49 +3793,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>304</v>
+        <v>242</v>
       </c>
       <c r="D11" s="7">
-        <v>204318</v>
+        <v>145700</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>223</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>266</v>
+        <v>235</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>267</v>
+        <v>236</v>
       </c>
       <c r="H11" s="7">
-        <v>302</v>
+        <v>233</v>
       </c>
       <c r="I11" s="7">
-        <v>187174</v>
+        <v>156675</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>268</v>
+        <v>237</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="M11" s="7">
-        <v>606</v>
+        <v>475</v>
       </c>
       <c r="N11" s="7">
-        <v>391493</v>
+        <v>302374</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4381,10 +3844,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>332</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>224359</v>
+        <v>155232</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4396,10 +3859,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>333</v>
+        <v>247</v>
       </c>
       <c r="I12" s="7">
-        <v>206770</v>
+        <v>165743</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4411,10 +3874,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>665</v>
+        <v>505</v>
       </c>
       <c r="N12" s="7">
-        <v>431129</v>
+        <v>320975</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4434,49 +3897,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D13" s="7">
-        <v>9068</v>
+        <v>10350</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="I13" s="7">
-        <v>9532</v>
+        <v>12629</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>213</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>246</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="N13" s="7">
-        <v>18601</v>
+        <v>22978</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>248</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>249</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>250</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4485,49 +3948,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>233</v>
+        <v>265</v>
       </c>
       <c r="D14" s="7">
-        <v>156675</v>
+        <v>196169</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>283</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>284</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>285</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>242</v>
+        <v>272</v>
       </c>
       <c r="I14" s="7">
-        <v>145700</v>
+        <v>193107</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>286</v>
+        <v>223</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>287</v>
+        <v>254</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>288</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
-        <v>475</v>
+        <v>537</v>
       </c>
       <c r="N14" s="7">
-        <v>302374</v>
+        <v>389277</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>289</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>290</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>291</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4536,10 +3999,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>247</v>
+        <v>280</v>
       </c>
       <c r="D15" s="7">
-        <v>165743</v>
+        <v>206519</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4551,10 +4014,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>290</v>
       </c>
       <c r="I15" s="7">
-        <v>155232</v>
+        <v>205736</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4566,10 +4029,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>505</v>
+        <v>570</v>
       </c>
       <c r="N15" s="7">
-        <v>320975</v>
+        <v>412255</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4583,55 +4046,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="D16" s="7">
-        <v>12629</v>
+        <v>47647</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>277</v>
+        <v>163</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>259</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>260</v>
       </c>
       <c r="H16" s="7">
-        <v>15</v>
+        <v>74</v>
       </c>
       <c r="I16" s="7">
-        <v>10350</v>
+        <v>51447</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>261</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>248</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
       <c r="M16" s="7">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="N16" s="7">
-        <v>22978</v>
+        <v>99093</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4640,49 +4103,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>985</v>
+      </c>
+      <c r="D17" s="7">
+        <v>654581</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="H17" s="7">
+        <v>987</v>
+      </c>
+      <c r="I17" s="7">
+        <v>690325</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>268</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="M17" s="7">
+        <v>1972</v>
+      </c>
+      <c r="N17" s="7">
+        <v>1344907</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>271</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="D17" s="7">
-        <v>193107</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="H17" s="7">
-        <v>265</v>
-      </c>
-      <c r="I17" s="7">
-        <v>196169</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="M17" s="7">
-        <v>537</v>
-      </c>
-      <c r="N17" s="7">
-        <v>389277</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4691,10 +4154,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>290</v>
+        <v>1058</v>
       </c>
       <c r="D18" s="7">
-        <v>205736</v>
+        <v>702228</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4706,10 +4169,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>280</v>
+        <v>1061</v>
       </c>
       <c r="I18" s="7">
-        <v>206519</v>
+        <v>741772</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4721,10 +4184,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>570</v>
+        <v>2119</v>
       </c>
       <c r="N18" s="7">
-        <v>412255</v>
+        <v>1444000</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4737,171 +4200,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>74</v>
-      </c>
-      <c r="D19" s="7">
-        <v>51447</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="H19" s="7">
-        <v>73</v>
-      </c>
-      <c r="I19" s="7">
-        <v>47647</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="M19" s="7">
-        <v>147</v>
-      </c>
-      <c r="N19" s="7">
-        <v>99093</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>987</v>
-      </c>
-      <c r="D20" s="7">
-        <v>690325</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H20" s="7">
-        <v>985</v>
-      </c>
-      <c r="I20" s="7">
-        <v>654581</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>320</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1972</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1344907</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>322</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>1061</v>
-      </c>
-      <c r="D21" s="7">
-        <v>741772</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>1058</v>
-      </c>
-      <c r="I21" s="7">
-        <v>702228</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>2119</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1444000</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4914,8 +4221,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10552713-10E1-4DB0-AD93-FC9CC144D787}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6214707-74E2-449A-A3E7-C25CC690E34B}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4931,7 +4238,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5032,49 +4339,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="D4" s="7">
-        <v>2503</v>
+        <v>12006</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>325</v>
+        <v>274</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>326</v>
+        <v>275</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>276</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="I4" s="7">
-        <v>1468</v>
+        <v>23931</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>277</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>262</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>278</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="N4" s="7">
-        <v>3971</v>
+        <v>35937</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>160</v>
+        <v>279</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>331</v>
+        <v>280</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>332</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5083,49 +4390,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>15</v>
+        <v>177</v>
       </c>
       <c r="D5" s="7">
-        <v>10195</v>
+        <v>105274</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>333</v>
+        <v>282</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>334</v>
+        <v>283</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>335</v>
+        <v>284</v>
       </c>
       <c r="H5" s="7">
-        <v>25</v>
+        <v>151</v>
       </c>
       <c r="I5" s="7">
-        <v>15319</v>
+        <v>116481</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>285</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>286</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>269</v>
       </c>
       <c r="M5" s="7">
-        <v>40</v>
+        <v>328</v>
       </c>
       <c r="N5" s="7">
-        <v>25514</v>
+        <v>221756</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>169</v>
+        <v>287</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>339</v>
+        <v>288</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>340</v>
+        <v>289</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5134,10 +4441,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5149,10 +4456,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5164,10 +4471,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5187,49 +4494,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>16255</v>
+        <v>21360</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>341</v>
+        <v>148</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>342</v>
+        <v>290</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>343</v>
+        <v>291</v>
       </c>
       <c r="H7" s="7">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>10509</v>
+        <v>25935</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>344</v>
+        <v>292</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>345</v>
+        <v>293</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>346</v>
+        <v>294</v>
       </c>
       <c r="M7" s="7">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="N7" s="7">
-        <v>26764</v>
+        <v>47295</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>347</v>
+        <v>295</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>348</v>
+        <v>296</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>349</v>
+        <v>147</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5238,49 +4545,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>136</v>
+        <v>254</v>
       </c>
       <c r="D8" s="7">
-        <v>98341</v>
+        <v>169152</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>350</v>
+        <v>158</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>351</v>
+        <v>297</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>352</v>
+        <v>298</v>
       </c>
       <c r="H8" s="7">
-        <v>152</v>
+        <v>303</v>
       </c>
       <c r="I8" s="7">
-        <v>93386</v>
+        <v>227113</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>353</v>
+        <v>299</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>354</v>
+        <v>300</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>355</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
-        <v>288</v>
+        <v>557</v>
       </c>
       <c r="N8" s="7">
-        <v>191726</v>
+        <v>396265</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>356</v>
+        <v>302</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>357</v>
+        <v>156</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>358</v>
+        <v>303</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5289,10 +4596,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D9" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5304,10 +4611,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>168</v>
+        <v>341</v>
       </c>
       <c r="I9" s="7">
-        <v>103895</v>
+        <v>253048</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5319,10 +4626,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>320</v>
+        <v>621</v>
       </c>
       <c r="N9" s="7">
-        <v>218490</v>
+        <v>443560</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5342,49 +4649,49 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>38</v>
+        <v>21</v>
       </c>
       <c r="D10" s="7">
-        <v>25328</v>
+        <v>14510</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>359</v>
+        <v>304</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>360</v>
+        <v>305</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>108</v>
+        <v>306</v>
       </c>
       <c r="H10" s="7">
         <v>26</v>
       </c>
       <c r="I10" s="7">
-        <v>18456</v>
+        <v>20960</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>361</v>
+        <v>307</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>362</v>
+        <v>308</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>363</v>
+        <v>309</v>
       </c>
       <c r="M10" s="7">
-        <v>64</v>
+        <v>47</v>
       </c>
       <c r="N10" s="7">
-        <v>43784</v>
+        <v>35469</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>364</v>
+        <v>310</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>365</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>366</v>
+        <v>311</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5393,49 +4700,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>303</v>
+        <v>204</v>
       </c>
       <c r="D11" s="7">
-        <v>222645</v>
+        <v>174632</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>367</v>
+        <v>312</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>313</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>368</v>
+        <v>314</v>
       </c>
       <c r="H11" s="7">
-        <v>254</v>
+        <v>199</v>
       </c>
       <c r="I11" s="7">
-        <v>173896</v>
+        <v>164326</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>369</v>
+        <v>315</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>370</v>
+        <v>316</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>371</v>
+        <v>317</v>
       </c>
       <c r="M11" s="7">
-        <v>557</v>
+        <v>403</v>
       </c>
       <c r="N11" s="7">
-        <v>396541</v>
+        <v>338959</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>372</v>
+        <v>318</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>373</v>
+        <v>319</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>374</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5444,10 +4751,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>341</v>
+        <v>225</v>
       </c>
       <c r="D12" s="7">
-        <v>247973</v>
+        <v>189142</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5459,10 +4766,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I12" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5474,10 +4781,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>621</v>
+        <v>450</v>
       </c>
       <c r="N12" s="7">
-        <v>440325</v>
+        <v>374428</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5497,49 +4804,49 @@
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>19126</v>
+        <v>15673</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>375</v>
+        <v>320</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>126</v>
+        <v>321</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>322</v>
       </c>
       <c r="H13" s="7">
-        <v>21</v>
+        <v>36</v>
       </c>
       <c r="I13" s="7">
-        <v>14430</v>
+        <v>28204</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>323</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>151</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>40</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>33556</v>
+        <v>43877</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>325</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5548,49 +4855,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="D14" s="7">
-        <v>154082</v>
+        <v>152289</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>135</v>
+        <v>330</v>
       </c>
       <c r="H14" s="7">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I14" s="7">
-        <v>152996</v>
+        <v>153034</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>384</v>
+        <v>331</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>48</v>
+        <v>332</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>385</v>
+        <v>161</v>
       </c>
       <c r="M14" s="7">
-        <v>403</v>
+        <v>419</v>
       </c>
       <c r="N14" s="7">
-        <v>307078</v>
+        <v>305324</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>386</v>
+        <v>333</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>387</v>
+        <v>334</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>388</v>
+        <v>335</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5599,10 +4906,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D15" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5614,10 +4921,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>225</v>
+        <v>238</v>
       </c>
       <c r="I15" s="7">
-        <v>167426</v>
+        <v>181238</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5629,10 +4936,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>450</v>
+        <v>478</v>
       </c>
       <c r="N15" s="7">
-        <v>340634</v>
+        <v>349201</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5646,55 +4953,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>36</v>
+        <v>89</v>
       </c>
       <c r="D16" s="7">
-        <v>26339</v>
+        <v>63548</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>389</v>
+        <v>336</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>390</v>
+        <v>71</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>391</v>
+        <v>214</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="I16" s="7">
-        <v>16013</v>
+        <v>99029</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>209</v>
       </c>
       <c r="N16" s="7">
-        <v>42352</v>
+        <v>162578</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5703,49 +5010,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>202</v>
+        <v>852</v>
       </c>
       <c r="D17" s="7">
-        <v>148677</v>
+        <v>601348</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>399</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>400</v>
+        <v>81</v>
       </c>
       <c r="H17" s="7">
-        <v>217</v>
+        <v>855</v>
       </c>
       <c r="I17" s="7">
-        <v>155930</v>
+        <v>660955</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>401</v>
+        <v>344</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>402</v>
+        <v>345</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>403</v>
+        <v>346</v>
       </c>
       <c r="M17" s="7">
-        <v>419</v>
+        <v>1707</v>
       </c>
       <c r="N17" s="7">
-        <v>304606</v>
+        <v>1262303</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>404</v>
+        <v>347</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>405</v>
+        <v>348</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>406</v>
+        <v>349</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5754,10 +5061,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>238</v>
+        <v>941</v>
       </c>
       <c r="D18" s="7">
-        <v>175016</v>
+        <v>664896</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5769,10 +5076,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>240</v>
+        <v>975</v>
       </c>
       <c r="I18" s="7">
-        <v>171943</v>
+        <v>759984</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5784,10 +5091,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>478</v>
+        <v>1916</v>
       </c>
       <c r="N18" s="7">
-        <v>346958</v>
+        <v>1424881</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5800,171 +5107,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>120</v>
-      </c>
-      <c r="D19" s="7">
-        <v>89551</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="H19" s="7">
-        <v>89</v>
-      </c>
-      <c r="I19" s="7">
-        <v>60876</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="M19" s="7">
-        <v>209</v>
-      </c>
-      <c r="N19" s="7">
-        <v>150428</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>855</v>
-      </c>
-      <c r="D20" s="7">
-        <v>633940</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>418</v>
-      </c>
-      <c r="H20" s="7">
-        <v>852</v>
-      </c>
-      <c r="I20" s="7">
-        <v>591527</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="M20" s="7">
-        <v>1707</v>
-      </c>
-      <c r="N20" s="7">
-        <v>1225466</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>975</v>
-      </c>
-      <c r="D21" s="7">
-        <v>723491</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>941</v>
-      </c>
-      <c r="I21" s="7">
-        <v>652403</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>1916</v>
-      </c>
-      <c r="N21" s="7">
-        <v>1375894</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
